--- a/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.042383522070198</v>
+      </c>
+      <c r="D3">
+        <v>1.027322484311146</v>
+      </c>
+      <c r="E3">
         <v>1.196165929180897</v>
-      </c>
-      <c r="D3">
-        <v>1.130506158330388</v>
-      </c>
-      <c r="E3">
-        <v>1.075517402241925</v>
       </c>
       <c r="F3">
         <v>1.196165929180897</v>
       </c>
       <c r="G3">
-        <v>1.042383522070198</v>
+        <v>1.034076709906686</v>
       </c>
       <c r="H3">
-        <v>1.027322484311146</v>
+        <v>1.029296193134856</v>
       </c>
       <c r="I3">
+        <v>1.130506158330388</v>
+      </c>
+      <c r="J3">
+        <v>0.9438106002261297</v>
+      </c>
+      <c r="K3">
         <v>1.196165929180893</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>1.075517402241925</v>
+      </c>
+      <c r="M3">
         <v>1.130506158330388</v>
-      </c>
-      <c r="K3">
-        <v>0.9438106002261297</v>
-      </c>
-      <c r="L3">
-        <v>1.029296193134856</v>
-      </c>
-      <c r="M3">
-        <v>1.034076709906686</v>
       </c>
       <c r="N3">
         <v>1.196165929180897</v>
@@ -680,7 +692,7 @@
         <v>1.075517402241925</v>
       </c>
       <c r="P3">
-        <v>1.103011780286156</v>
+        <v>1.103011780286157</v>
       </c>
       <c r="Q3">
         <v>1.058950462156061</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.084258076248592</v>
+      </c>
+      <c r="D4">
+        <v>1.059803651426809</v>
+      </c>
+      <c r="E4">
         <v>1.427852674521916</v>
-      </c>
-      <c r="D4">
-        <v>1.204465782221185</v>
-      </c>
-      <c r="E4">
-        <v>1.103969556861851</v>
       </c>
       <c r="F4">
         <v>1.427852674521916</v>
       </c>
       <c r="G4">
-        <v>1.084258076248592</v>
+        <v>1.094679106054869</v>
       </c>
       <c r="H4">
-        <v>1.059803651426809</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I4">
+        <v>1.204465782221185</v>
+      </c>
+      <c r="J4">
+        <v>0.9187278926207247</v>
+      </c>
+      <c r="K4">
         <v>1.427852674521912</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>1.103969556861851</v>
+      </c>
+      <c r="M4">
         <v>1.204465782221185</v>
-      </c>
-      <c r="K4">
-        <v>0.9187278926207249</v>
-      </c>
-      <c r="L4">
-        <v>1.060006336512867</v>
-      </c>
-      <c r="M4">
-        <v>1.094679106054869</v>
       </c>
       <c r="N4">
         <v>1.427852674521916</v>
@@ -760,7 +772,7 @@
         <v>1.245429337868318</v>
       </c>
       <c r="S4">
-        <v>1.130897805110542</v>
+        <v>1.130897805110543</v>
       </c>
       <c r="T4">
         <v>1.245429337868318</v>
@@ -783,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.083337686970799</v>
+      </c>
+      <c r="D5">
+        <v>1.272063946452429</v>
+      </c>
+      <c r="E5">
         <v>1.918670222849598</v>
-      </c>
-      <c r="D5">
-        <v>1.456267793445341</v>
-      </c>
-      <c r="E5">
-        <v>1.275125397922194</v>
       </c>
       <c r="F5">
         <v>1.918670222849598</v>
       </c>
       <c r="G5">
-        <v>1.083337686970799</v>
+        <v>1.293561884734692</v>
       </c>
       <c r="H5">
-        <v>1.272063946452429</v>
+        <v>1.372887266745037</v>
       </c>
       <c r="I5">
+        <v>1.456267793445341</v>
+      </c>
+      <c r="J5">
+        <v>0.8518990952116925</v>
+      </c>
+      <c r="K5">
         <v>1.918670222849598</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>1.275125397922194</v>
+      </c>
+      <c r="M5">
         <v>1.456267793445341</v>
-      </c>
-      <c r="K5">
-        <v>0.8518990952116925</v>
-      </c>
-      <c r="L5">
-        <v>1.372887266745037</v>
-      </c>
-      <c r="M5">
-        <v>1.293561884734692</v>
       </c>
       <c r="N5">
         <v>1.918670222849598</v>
@@ -854,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.348905562842059</v>
+      </c>
+      <c r="D6">
+        <v>1.452216975573738</v>
+      </c>
+      <c r="E6">
         <v>2.218885252296807</v>
-      </c>
-      <c r="D6">
-        <v>3.277579610696109</v>
-      </c>
-      <c r="E6">
-        <v>2.238600064254573</v>
       </c>
       <c r="F6">
         <v>2.218885252296807</v>
       </c>
       <c r="G6">
-        <v>1.348905562842059</v>
+        <v>1.392119127836951</v>
       </c>
       <c r="H6">
-        <v>1.452216975573738</v>
+        <v>0.7246722476480973</v>
       </c>
       <c r="I6">
+        <v>3.277579610696109</v>
+      </c>
+      <c r="J6">
+        <v>0.4387669108336945</v>
+      </c>
+      <c r="K6">
         <v>2.218885252296807</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>2.238600064254573</v>
+      </c>
+      <c r="M6">
         <v>3.277579610696109</v>
-      </c>
-      <c r="K6">
-        <v>0.4387669108336945</v>
-      </c>
-      <c r="L6">
-        <v>0.7246722476480973</v>
-      </c>
-      <c r="M6">
-        <v>1.392119127836951</v>
       </c>
       <c r="N6">
         <v>2.218885252296807</v>
@@ -925,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9972897873623759</v>
+        <v>0.9994910082715083</v>
       </c>
       <c r="D7">
-        <v>1.007650245354307</v>
+        <v>0.9992794410692367</v>
       </c>
       <c r="E7">
+        <v>0.9972897873623754</v>
+      </c>
+      <c r="F7">
+        <v>0.9972897873623754</v>
+      </c>
+      <c r="G7">
+        <v>0.9972576529940472</v>
+      </c>
+      <c r="H7">
+        <v>0.9986877379829672</v>
+      </c>
+      <c r="I7">
+        <v>1.007650245354308</v>
+      </c>
+      <c r="J7">
+        <v>0.9986215013794889</v>
+      </c>
+      <c r="K7">
+        <v>0.9972897873623717</v>
+      </c>
+      <c r="L7">
         <v>1.02561603555661</v>
       </c>
-      <c r="F7">
-        <v>0.9972897873623759</v>
-      </c>
-      <c r="G7">
-        <v>0.9994910082715088</v>
-      </c>
-      <c r="H7">
-        <v>0.9992794410692366</v>
-      </c>
-      <c r="I7">
-        <v>0.9972897873623723</v>
-      </c>
-      <c r="J7">
-        <v>1.007650245354307</v>
-      </c>
-      <c r="K7">
-        <v>0.9986215013794884</v>
-      </c>
-      <c r="L7">
-        <v>0.9986877379829663</v>
-      </c>
       <c r="M7">
-        <v>0.9972576529940467</v>
+        <v>1.007650245354308</v>
       </c>
       <c r="N7">
-        <v>0.9972897873623759</v>
+        <v>0.9972897873623754</v>
       </c>
       <c r="O7">
         <v>1.02561603555661</v>
       </c>
       <c r="P7">
-        <v>1.016633140455458</v>
+        <v>1.016633140455459</v>
       </c>
       <c r="Q7">
-        <v>1.01255352191406</v>
+        <v>1.012553521914059</v>
       </c>
       <c r="R7">
         <v>1.010185356091098</v>
@@ -979,10 +991,10 @@
         <v>1.010185356091098</v>
       </c>
       <c r="U7">
-        <v>1.007511769136201</v>
+        <v>1.0075117691362</v>
       </c>
       <c r="V7">
-        <v>1.005467372781436</v>
+        <v>1.005467372781435</v>
       </c>
       <c r="W7">
         <v>1.002986676246318</v>
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.994285570681103</v>
+        <v>0.9947385582772318</v>
       </c>
       <c r="D8">
+        <v>0.9976239361296541</v>
+      </c>
+      <c r="E8">
+        <v>0.9942855706811037</v>
+      </c>
+      <c r="F8">
+        <v>0.9942855706811037</v>
+      </c>
+      <c r="G8">
+        <v>0.9958500851353789</v>
+      </c>
+      <c r="H8">
+        <v>0.9926410730429109</v>
+      </c>
+      <c r="I8">
         <v>1.03287941147511</v>
       </c>
-      <c r="E8">
-        <v>1.052501816553486</v>
-      </c>
-      <c r="F8">
-        <v>0.994285570681103</v>
-      </c>
-      <c r="G8">
-        <v>0.9947385582772318</v>
-      </c>
-      <c r="H8">
-        <v>0.9976239361296546</v>
-      </c>
-      <c r="I8">
-        <v>0.9942855706810988</v>
-      </c>
       <c r="J8">
+        <v>0.9999795021650112</v>
+      </c>
+      <c r="K8">
+        <v>0.9942855706810995</v>
+      </c>
+      <c r="L8">
+        <v>1.052501816553491</v>
+      </c>
+      <c r="M8">
         <v>1.03287941147511</v>
       </c>
-      <c r="K8">
-        <v>0.9999795021650105</v>
-      </c>
-      <c r="L8">
-        <v>0.9926410730429103</v>
-      </c>
-      <c r="M8">
-        <v>0.9958500851353799</v>
-      </c>
       <c r="N8">
-        <v>0.994285570681103</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="O8">
-        <v>1.052501816553486</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="P8">
-        <v>1.042690614014298</v>
+        <v>1.0426906140143</v>
       </c>
       <c r="Q8">
-        <v>1.023620187415359</v>
+        <v>1.023620187415361</v>
       </c>
       <c r="R8">
-        <v>1.0265555995699</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="S8">
-        <v>1.026706595435276</v>
+        <v>1.026706595435277</v>
       </c>
       <c r="T8">
-        <v>1.0265555995699</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="U8">
-        <v>1.018601339246733</v>
+        <v>1.018601339246734</v>
       </c>
       <c r="V8">
-        <v>1.013738185533607</v>
+        <v>1.013738185533608</v>
       </c>
       <c r="W8">
-        <v>1.007562494182486</v>
+        <v>1.007562494182487</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9888031394309403</v>
+      </c>
+      <c r="D9">
+        <v>1.009466547255464</v>
+      </c>
+      <c r="E9">
         <v>0.9560578556864886</v>
-      </c>
-      <c r="D9">
-        <v>1.100568736114495</v>
-      </c>
-      <c r="E9">
-        <v>1.07257752020572</v>
       </c>
       <c r="F9">
         <v>0.9560578556864886</v>
       </c>
       <c r="G9">
-        <v>0.9888031394309403</v>
+        <v>1.019799002795659</v>
       </c>
       <c r="H9">
-        <v>1.009466547255464</v>
+        <v>0.9814066430998976</v>
       </c>
       <c r="I9">
-        <v>0.9560578556864848</v>
+        <v>1.100568736114495</v>
       </c>
       <c r="J9">
+        <v>0.9933771690170284</v>
+      </c>
+      <c r="K9">
+        <v>0.9560578556864846</v>
+      </c>
+      <c r="L9">
+        <v>1.07257752020572</v>
+      </c>
+      <c r="M9">
         <v>1.100568736114495</v>
-      </c>
-      <c r="K9">
-        <v>0.9933771690170284</v>
-      </c>
-      <c r="L9">
-        <v>0.9814066430998974</v>
-      </c>
-      <c r="M9">
-        <v>1.019799002795659</v>
       </c>
       <c r="N9">
         <v>0.9560578556864886</v>
@@ -1138,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9818464914717783</v>
+      </c>
+      <c r="D10">
+        <v>0.9918484270727357</v>
+      </c>
+      <c r="E10">
         <v>0.9745599959497731</v>
-      </c>
-      <c r="D10">
-        <v>1.147242143635425</v>
-      </c>
-      <c r="E10">
-        <v>1.166535673079423</v>
       </c>
       <c r="F10">
         <v>0.9745599959497731</v>
       </c>
       <c r="G10">
-        <v>0.9818464914717784</v>
+        <v>0.9749255068836895</v>
       </c>
       <c r="H10">
-        <v>0.9918484270727357</v>
+        <v>0.9773479108030551</v>
       </c>
       <c r="I10">
+        <v>1.147242143635425</v>
+      </c>
+      <c r="J10">
+        <v>0.9992565175199558</v>
+      </c>
+      <c r="K10">
         <v>0.9745599959497683</v>
       </c>
-      <c r="J10">
+      <c r="L10">
+        <v>1.166535673079423</v>
+      </c>
+      <c r="M10">
         <v>1.147242143635425</v>
-      </c>
-      <c r="K10">
-        <v>0.9992565175199558</v>
-      </c>
-      <c r="L10">
-        <v>0.9773479108030551</v>
-      </c>
-      <c r="M10">
-        <v>0.9749255068836895</v>
       </c>
       <c r="N10">
         <v>0.9745599959497731</v>
@@ -1209,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9377821049344189</v>
+      </c>
+      <c r="D11">
+        <v>0.9892989771092008</v>
+      </c>
+      <c r="E11">
         <v>0.9107505266245541</v>
-      </c>
-      <c r="D11">
-        <v>1.444134677132659</v>
-      </c>
-      <c r="E11">
-        <v>1.40062905144651</v>
       </c>
       <c r="F11">
         <v>0.9107505266245541</v>
       </c>
       <c r="G11">
-        <v>0.9377821049344189</v>
+        <v>1.122147543777405</v>
       </c>
       <c r="H11">
-        <v>0.9892989771092007</v>
+        <v>1.001974548398665</v>
       </c>
       <c r="I11">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="J11">
+        <v>0.9747353337819571</v>
+      </c>
+      <c r="K11">
         <v>0.9107505266245541</v>
       </c>
-      <c r="J11">
+      <c r="L11">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="M11">
         <v>1.444134677132659</v>
-      </c>
-      <c r="K11">
-        <v>0.9747353337819575</v>
-      </c>
-      <c r="L11">
-        <v>1.001974548398665</v>
-      </c>
-      <c r="M11">
-        <v>1.122147543777405</v>
       </c>
       <c r="N11">
         <v>0.9107505266245541</v>
@@ -1280,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.26648903531007</v>
+      </c>
+      <c r="D12">
+        <v>0.4533893374864226</v>
+      </c>
+      <c r="E12">
         <v>0.04493336651283013</v>
-      </c>
-      <c r="D12">
-        <v>0.00230386801961691</v>
-      </c>
-      <c r="E12">
-        <v>0.04323703425380294</v>
       </c>
       <c r="F12">
         <v>0.04493336651283013</v>
       </c>
       <c r="G12">
-        <v>1.266489035310069</v>
+        <v>1.611159066105061</v>
       </c>
       <c r="H12">
-        <v>0.453389337486422</v>
+        <v>1.478040375546571</v>
       </c>
       <c r="I12">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J12">
+        <v>0.9634014086910617</v>
+      </c>
+      <c r="K12">
         <v>0.04493336651283013</v>
       </c>
-      <c r="J12">
-        <v>0.00230386801961691</v>
-      </c>
-      <c r="K12">
-        <v>0.9634014086910617</v>
-      </c>
       <c r="L12">
-        <v>1.47804037554657</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="M12">
-        <v>1.611159066105062</v>
+        <v>0.002303868019616903</v>
       </c>
       <c r="N12">
         <v>0.04493336651283013</v>
@@ -1319,28 +1331,28 @@
         <v>0.04323703425380294</v>
       </c>
       <c r="P12">
-        <v>0.02277045113670993</v>
+        <v>0.02277045113670992</v>
       </c>
       <c r="Q12">
-        <v>0.654863034781936</v>
+        <v>0.6548630347819363</v>
       </c>
       <c r="R12">
         <v>0.03015808959541666</v>
       </c>
       <c r="S12">
-        <v>0.4373433125278297</v>
+        <v>0.4373433125278299</v>
       </c>
       <c r="T12">
         <v>0.03015808959541666</v>
       </c>
       <c r="U12">
-        <v>0.3392408260240798</v>
+        <v>0.3392408260240799</v>
       </c>
       <c r="V12">
-        <v>0.2803793341218299</v>
+        <v>0.28037933412183</v>
       </c>
       <c r="W12">
-        <v>0.7328691864906792</v>
+        <v>0.7328691864906796</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.989604547419958</v>
+        <v>0.1101633907951074</v>
       </c>
       <c r="D13">
+        <v>1.435229108508237</v>
+      </c>
+      <c r="E13">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="F13">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="G13">
+        <v>0.5663888784986911</v>
+      </c>
+      <c r="H13">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I13">
         <v>2.359723982081764</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>1.202456742315591</v>
+      </c>
+      <c r="K13">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="L13">
         <v>2.195642819680748</v>
       </c>
-      <c r="F13">
-        <v>2.989604547419958</v>
-      </c>
-      <c r="G13">
-        <v>0.1101633907951074</v>
-      </c>
-      <c r="H13">
-        <v>1.435229108508238</v>
-      </c>
-      <c r="I13">
-        <v>2.989604547419958</v>
-      </c>
-      <c r="J13">
+      <c r="M13">
         <v>2.359723982081764</v>
       </c>
-      <c r="K13">
-        <v>1.20245674231559</v>
-      </c>
-      <c r="L13">
-        <v>0.06129398204738203</v>
-      </c>
-      <c r="M13">
-        <v>0.5663888784986912</v>
-      </c>
       <c r="N13">
-        <v>2.989604547419958</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="O13">
         <v>2.195642819680748</v>
@@ -1393,7 +1405,7 @@
         <v>2.277683400881256</v>
       </c>
       <c r="Q13">
-        <v>1.152903105237927</v>
+        <v>1.152903105237928</v>
       </c>
       <c r="R13">
         <v>2.51499044972749</v>
@@ -1405,7 +1417,7 @@
         <v>2.51499044972749</v>
       </c>
       <c r="U13">
-        <v>1.913783684994394</v>
+        <v>1.913783684994395</v>
       </c>
       <c r="V13">
         <v>2.128947857479507</v>
@@ -1422,58 +1434,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0001223677793042244</v>
+        <v>0.8251129521803349</v>
       </c>
       <c r="D14">
-        <v>7.670671026192246</v>
+        <v>0.0002127605872356338</v>
       </c>
       <c r="E14">
-        <v>5.389801868053286E-05</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="F14">
-        <v>-0.0001223677793042244</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="G14">
-        <v>0.8251129521803355</v>
+        <v>4.374414363102184</v>
       </c>
       <c r="H14">
-        <v>0.0002127605872356335</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="I14">
-        <v>-0.0001223677793042244</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="J14">
-        <v>7.670671026192246</v>
+        <v>1.128222240509831</v>
       </c>
       <c r="K14">
-        <v>1.128222240509833</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="L14">
-        <v>0.001994453787480646</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="M14">
-        <v>4.374414363102183</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="N14">
-        <v>-0.0001223677793042244</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="O14">
-        <v>5.389801868053286E-05</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="P14">
-        <v>3.835362462105463</v>
+        <v>3.835362462105464</v>
       </c>
       <c r="Q14">
-        <v>0.412583425099508</v>
+        <v>0.4125834250995077</v>
       </c>
       <c r="R14">
-        <v>2.556867518810541</v>
+        <v>2.556867518810542</v>
       </c>
       <c r="S14">
-        <v>2.831945958797087</v>
+        <v>2.831945958797088</v>
       </c>
       <c r="T14">
-        <v>2.556867518810541</v>
+        <v>2.556867518810542</v>
       </c>
       <c r="U14">
         <v>2.12392887715299</v>
@@ -1493,40 +1505,40 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0002503768792746597</v>
+        <v>1.339395960455954</v>
       </c>
       <c r="D15">
-        <v>0.01254785470251998</v>
+        <v>0.05906477380171074</v>
       </c>
       <c r="E15">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="F15">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="G15">
+        <v>1.790694063761198</v>
+      </c>
+      <c r="H15">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="I15">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J15">
+        <v>1.774618831946871</v>
+      </c>
+      <c r="K15">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="L15">
         <v>0.2434722769406729</v>
       </c>
-      <c r="F15">
-        <v>-0.0002503768792746597</v>
-      </c>
-      <c r="G15">
-        <v>1.339395960455954</v>
-      </c>
-      <c r="H15">
-        <v>0.05906477380171075</v>
-      </c>
-      <c r="I15">
-        <v>-0.0002503768792746597</v>
-      </c>
-      <c r="J15">
-        <v>0.01254785470251998</v>
-      </c>
-      <c r="K15">
-        <v>1.774618831946872</v>
-      </c>
-      <c r="L15">
-        <v>1.467031158321971</v>
-      </c>
       <c r="M15">
-        <v>1.790694063761198</v>
+        <v>0.01254785470251997</v>
       </c>
       <c r="N15">
-        <v>-0.0002503768792746597</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="O15">
         <v>0.2434722769406729</v>
@@ -1535,19 +1547,19 @@
         <v>0.1280100658215965</v>
       </c>
       <c r="Q15">
-        <v>0.7914341186983135</v>
+        <v>0.7914341186983134</v>
       </c>
       <c r="R15">
         <v>0.0852565849213061</v>
       </c>
       <c r="S15">
-        <v>0.531805364033049</v>
+        <v>0.5318053640330489</v>
       </c>
       <c r="T15">
         <v>0.0852565849213061</v>
       </c>
       <c r="U15">
-        <v>0.3987914288049681</v>
+        <v>0.398791428804968</v>
       </c>
       <c r="V15">
         <v>0.3189830676681195</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9681699309966444</v>
+        <v>1.566923012286028</v>
       </c>
       <c r="D16">
-        <v>0.9814098695511184</v>
+        <v>1.625776190998944</v>
       </c>
       <c r="E16">
-        <v>1.031086436960121</v>
+        <v>4.268200466166679</v>
       </c>
       <c r="F16">
-        <v>0.9681699309966444</v>
+        <v>4.268200466166679</v>
       </c>
       <c r="G16">
-        <v>1.013152350522182</v>
+        <v>1.560832102998648</v>
       </c>
       <c r="H16">
-        <v>0.9956523166043286</v>
+        <v>1.572722086876986</v>
       </c>
       <c r="I16">
-        <v>0.9681699309966401</v>
+        <v>2.909552588571048</v>
       </c>
       <c r="J16">
-        <v>0.9814098695511184</v>
+        <v>0.2388772466703032</v>
       </c>
       <c r="K16">
-        <v>1.002124936650724</v>
+        <v>4.268200466166679</v>
       </c>
       <c r="L16">
-        <v>1.010369271932264</v>
+        <v>1.955682545332104</v>
       </c>
       <c r="M16">
-        <v>0.9937594042158061</v>
+        <v>2.909552588571048</v>
       </c>
       <c r="N16">
-        <v>0.9681699309966444</v>
+        <v>4.268200466166679</v>
       </c>
       <c r="O16">
-        <v>1.031086436960121</v>
+        <v>1.955682545332104</v>
       </c>
       <c r="P16">
-        <v>1.00624815325562</v>
+        <v>2.432617566951576</v>
       </c>
       <c r="Q16">
-        <v>1.022119393741151</v>
+        <v>1.761302778809066</v>
       </c>
       <c r="R16">
-        <v>0.9935554125026281</v>
+        <v>3.04447853335661</v>
       </c>
       <c r="S16">
-        <v>1.008549552344474</v>
+        <v>2.144052715396393</v>
       </c>
       <c r="T16">
-        <v>0.9935554125026279</v>
+        <v>3.04447853335661</v>
       </c>
       <c r="U16">
-        <v>0.9984546470075164</v>
+        <v>2.675089653088965</v>
       </c>
       <c r="V16">
-        <v>0.9923977038053421</v>
+        <v>2.993711815704507</v>
       </c>
       <c r="W16">
-        <v>0.9994655646791485</v>
+        <v>1.962320779987592</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.045403599044828</v>
+        <v>1.334632306161356</v>
       </c>
       <c r="D17">
-        <v>1.053402545331115</v>
+        <v>1.452791022977018</v>
       </c>
       <c r="E17">
-        <v>0.976161171344973</v>
+        <v>3.141440184864841</v>
       </c>
       <c r="F17">
-        <v>1.045403599044828</v>
+        <v>3.141440184864841</v>
       </c>
       <c r="G17">
-        <v>0.9684489395606518</v>
+        <v>1.321080748093635</v>
       </c>
       <c r="H17">
-        <v>1.014345576163356</v>
+        <v>1.344577607996484</v>
       </c>
       <c r="I17">
-        <v>1.045403599044824</v>
+        <v>2.233412236774328</v>
       </c>
       <c r="J17">
-        <v>1.053402545331115</v>
+        <v>0.4761995009134166</v>
       </c>
       <c r="K17">
-        <v>1.000844621738089</v>
+        <v>3.14144018486484</v>
       </c>
       <c r="L17">
-        <v>0.9765831776914727</v>
+        <v>2.128012073770051</v>
       </c>
       <c r="M17">
-        <v>1.009708794559543</v>
+        <v>2.233412236774328</v>
       </c>
       <c r="N17">
-        <v>1.045403599044828</v>
+        <v>3.141440184864841</v>
       </c>
       <c r="O17">
-        <v>0.976161171344973</v>
+        <v>2.128012073770051</v>
       </c>
       <c r="P17">
-        <v>1.014781858338044</v>
+        <v>2.18071215527219</v>
       </c>
       <c r="Q17">
-        <v>0.9723050554528124</v>
+        <v>1.731322189965704</v>
       </c>
       <c r="R17">
-        <v>1.024989105240305</v>
+        <v>2.500954831803073</v>
       </c>
       <c r="S17">
-        <v>0.9993375520789133</v>
+        <v>1.898685538901912</v>
       </c>
       <c r="T17">
-        <v>1.024989105240305</v>
+        <v>2.500954831803073</v>
       </c>
       <c r="U17">
-        <v>1.010854063820392</v>
+        <v>2.209374200392644</v>
       </c>
       <c r="V17">
-        <v>1.017763970865279</v>
+        <v>2.395787397287084</v>
       </c>
       <c r="W17">
-        <v>1.005612303179253</v>
+        <v>1.679018210193891</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000878197936837</v>
+        <v>0.8744707250486213</v>
       </c>
       <c r="D18">
-        <v>1.236332324159667</v>
+        <v>1.100514237810301</v>
       </c>
       <c r="E18">
-        <v>1.030282999110335</v>
+        <v>0.8770477932532461</v>
       </c>
       <c r="F18">
-        <v>1.000878197936837</v>
+        <v>0.8770477932532461</v>
       </c>
       <c r="G18">
-        <v>1.07255242752061</v>
+        <v>0.8413466583103227</v>
       </c>
       <c r="H18">
-        <v>0.9998569202896528</v>
+        <v>0.8766010036734747</v>
       </c>
       <c r="I18">
-        <v>1.000878197936824</v>
+        <v>0.9350638570461965</v>
       </c>
       <c r="J18">
-        <v>1.236332324159667</v>
+        <v>0.9607841175663167</v>
       </c>
       <c r="K18">
-        <v>0.9875603361599358</v>
+        <v>0.8770477932532461</v>
       </c>
       <c r="L18">
-        <v>1.078418074592538</v>
+        <v>2.43083869514366</v>
       </c>
       <c r="M18">
-        <v>1.01770598204543</v>
+        <v>0.9350638570461965</v>
       </c>
       <c r="N18">
-        <v>1.000878197936837</v>
+        <v>0.8770477932532461</v>
       </c>
       <c r="O18">
-        <v>1.030282999110335</v>
+        <v>2.43083869514366</v>
       </c>
       <c r="P18">
-        <v>1.133307661635001</v>
+        <v>1.682951276094929</v>
       </c>
       <c r="Q18">
-        <v>1.051417713315473</v>
+        <v>1.652654710096141</v>
       </c>
       <c r="R18">
-        <v>1.089164507068946</v>
+        <v>1.414316781814368</v>
       </c>
       <c r="S18">
-        <v>1.113055916930204</v>
+        <v>1.413457759079493</v>
       </c>
       <c r="T18">
-        <v>1.089164507068946</v>
+        <v>1.414316781814368</v>
       </c>
       <c r="U18">
-        <v>1.085011487181862</v>
+        <v>1.279355267622931</v>
       </c>
       <c r="V18">
-        <v>1.068184829332857</v>
+        <v>1.198893772748994</v>
       </c>
       <c r="W18">
-        <v>1.052948407726876</v>
+        <v>1.112083385981518</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.7348455731128634</v>
+      </c>
+      <c r="D19">
+        <v>1.129580427667629</v>
+      </c>
+      <c r="E19">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="F19">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="G19">
+        <v>0.8771056401594836</v>
+      </c>
+      <c r="H19">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="I19">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="J19">
+        <v>0.8829309624590228</v>
+      </c>
+      <c r="K19">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="L19">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="M19">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="N19">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="O19">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="P19">
+        <v>2.038995266915837</v>
+      </c>
+      <c r="Q19">
+        <v>1.92169323559639</v>
+      </c>
+      <c r="R19">
+        <v>1.638976518154017</v>
+      </c>
+      <c r="S19">
+        <v>1.604278702314846</v>
+      </c>
+      <c r="T19">
+        <v>1.638976518154018</v>
+      </c>
+      <c r="U19">
+        <v>1.412943781893729</v>
+      </c>
+      <c r="V19">
+        <v>1.298142829641059</v>
+      </c>
+      <c r="W19">
+        <v>1.17498516508193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.013152350522182</v>
+      </c>
+      <c r="D20">
+        <v>0.9956523166043307</v>
+      </c>
+      <c r="E20">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="F20">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="G20">
+        <v>0.9937594042158062</v>
+      </c>
+      <c r="H20">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="I20">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="J20">
+        <v>1.002124936650724</v>
+      </c>
+      <c r="K20">
+        <v>0.9681699309966411</v>
+      </c>
+      <c r="L20">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="M20">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="N20">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="O20">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="P20">
+        <v>1.006248153255619</v>
+      </c>
+      <c r="Q20">
+        <v>1.022119393741152</v>
+      </c>
+      <c r="R20">
+        <v>0.9935554125026279</v>
+      </c>
+      <c r="S20">
+        <v>1.008549552344474</v>
+      </c>
+      <c r="T20">
+        <v>0.9935554125026279</v>
+      </c>
+      <c r="U20">
+        <v>0.9984546470075166</v>
+      </c>
+      <c r="V20">
+        <v>0.9923977038053424</v>
+      </c>
+      <c r="W20">
+        <v>0.9994655646791489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9684489395606513</v>
+      </c>
+      <c r="D21">
+        <v>1.014345576163358</v>
+      </c>
+      <c r="E21">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="F21">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="G21">
+        <v>1.009708794559543</v>
+      </c>
+      <c r="H21">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="I21">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="J21">
+        <v>1.00084462173809</v>
+      </c>
+      <c r="K21">
+        <v>1.045403599044825</v>
+      </c>
+      <c r="L21">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="M21">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="N21">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="O21">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="P21">
+        <v>1.014781858338044</v>
+      </c>
+      <c r="Q21">
+        <v>0.9723050554528117</v>
+      </c>
+      <c r="R21">
+        <v>1.024989105240306</v>
+      </c>
+      <c r="S21">
+        <v>0.9993375520789129</v>
+      </c>
+      <c r="T21">
+        <v>1.024989105240306</v>
+      </c>
+      <c r="U21">
+        <v>1.010854063820392</v>
+      </c>
+      <c r="V21">
+        <v>1.017763970865279</v>
+      </c>
+      <c r="W21">
+        <v>1.005612303179254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.072552427520612</v>
+      </c>
+      <c r="D22">
+        <v>0.9998569202896523</v>
+      </c>
+      <c r="E22">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="F22">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="G22">
+        <v>1.01770598204543</v>
+      </c>
+      <c r="H22">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="I22">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="J22">
+        <v>0.987560336159935</v>
+      </c>
+      <c r="K22">
+        <v>1.000878197936826</v>
+      </c>
+      <c r="L22">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="M22">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="N22">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="O22">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="P22">
+        <v>1.133307661635002</v>
+      </c>
+      <c r="Q22">
+        <v>1.051417713315474</v>
+      </c>
+      <c r="R22">
+        <v>1.089164507068948</v>
+      </c>
+      <c r="S22">
+        <v>1.113055916930205</v>
+      </c>
+      <c r="T22">
+        <v>1.089164507068948</v>
+      </c>
+      <c r="U22">
+        <v>1.085011487181864</v>
+      </c>
+      <c r="V22">
+        <v>1.068184829332859</v>
+      </c>
+      <c r="W22">
+        <v>1.052948407726876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.23409205624459</v>
+      </c>
+      <c r="D23">
+        <v>1.249071191726129</v>
+      </c>
+      <c r="E23">
         <v>0.680165514670602</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.680165514670602</v>
+      </c>
+      <c r="G23">
+        <v>1.093159468411679</v>
+      </c>
+      <c r="H23">
+        <v>1.098285379294338</v>
+      </c>
+      <c r="I23">
         <v>0.7134201058205806</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>1.008162520675988</v>
+      </c>
+      <c r="K23">
+        <v>0.6801655146705999</v>
+      </c>
+      <c r="L23">
         <v>1.096734407992369</v>
       </c>
-      <c r="F19">
+      <c r="M23">
+        <v>0.7134201058205806</v>
+      </c>
+      <c r="N23">
         <v>0.680165514670602</v>
       </c>
-      <c r="G19">
-        <v>1.23409205624459</v>
-      </c>
-      <c r="H19">
-        <v>1.249071191726129</v>
-      </c>
-      <c r="I19">
-        <v>0.6801655146705999</v>
-      </c>
-      <c r="J19">
-        <v>0.7134201058205806</v>
-      </c>
-      <c r="K19">
-        <v>1.008162520675988</v>
-      </c>
-      <c r="L19">
-        <v>1.098285379294338</v>
-      </c>
-      <c r="M19">
-        <v>1.093159468411679</v>
-      </c>
-      <c r="N19">
-        <v>0.680165514670602</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.096734407992369</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9050772569064749</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.16541323211848</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.8301066761611841</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.014748856685846</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.8301066761611841</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9311030211820355</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.8809155198797487</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.021636330604534</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.042383522070198</v>
+        <v>0.8824252282448501</v>
       </c>
       <c r="D3">
-        <v>1.027322484311146</v>
+        <v>1.110554507403291</v>
       </c>
       <c r="E3">
-        <v>1.196165929180897</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="F3">
-        <v>1.196165929180897</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="G3">
-        <v>1.034076709906686</v>
+        <v>0.8556736736000023</v>
       </c>
       <c r="H3">
-        <v>1.029296193134856</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I3">
-        <v>1.130506158330388</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J3">
-        <v>0.9438106002261297</v>
+        <v>0.8944887454379963</v>
       </c>
       <c r="K3">
-        <v>1.196165929180893</v>
+        <v>1.026900162382973</v>
       </c>
       <c r="L3">
-        <v>1.075517402241925</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="M3">
-        <v>1.130506158330388</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="N3">
-        <v>1.196165929180897</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="O3">
-        <v>1.075517402241925</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="P3">
-        <v>1.103011780286157</v>
+        <v>2.026143291682227</v>
       </c>
       <c r="Q3">
-        <v>1.058950462156061</v>
+        <v>2.005278817765442</v>
       </c>
       <c r="R3">
-        <v>1.13406316325107</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="S3">
-        <v>1.082802360880837</v>
+        <v>1.644903937203101</v>
       </c>
       <c r="T3">
-        <v>1.13406316325107</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="U3">
-        <v>1.111143252955852</v>
+        <v>1.49040299349807</v>
       </c>
       <c r="V3">
-        <v>1.128147788200861</v>
+        <v>1.397702427275051</v>
       </c>
       <c r="W3">
-        <v>1.059884874925278</v>
+        <v>1.215235455188169</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.084258076248592</v>
+        <v>0.8767967554445885</v>
       </c>
       <c r="D4">
-        <v>1.059803651426809</v>
+        <v>1.109668042789813</v>
       </c>
       <c r="E4">
-        <v>1.427852674521916</v>
+        <v>0.9539821424111675</v>
       </c>
       <c r="F4">
-        <v>1.427852674521916</v>
+        <v>0.9539821424111675</v>
       </c>
       <c r="G4">
-        <v>1.094679106054869</v>
+        <v>0.8491688042213578</v>
       </c>
       <c r="H4">
-        <v>1.060006336512867</v>
+        <v>0.8945268122128065</v>
       </c>
       <c r="I4">
-        <v>1.204465782221185</v>
+        <v>0.8667790272014761</v>
       </c>
       <c r="J4">
-        <v>0.9187278926207247</v>
+        <v>0.9254612629503438</v>
       </c>
       <c r="K4">
-        <v>1.427852674521912</v>
+        <v>0.9539821424111645</v>
       </c>
       <c r="L4">
-        <v>1.103969556861851</v>
+        <v>2.767210724928606</v>
       </c>
       <c r="M4">
-        <v>1.204465782221185</v>
+        <v>0.8667790272014761</v>
       </c>
       <c r="N4">
-        <v>1.427852674521916</v>
+        <v>0.9539821424111675</v>
       </c>
       <c r="O4">
-        <v>1.103969556861851</v>
+        <v>2.767210724928606</v>
       </c>
       <c r="P4">
-        <v>1.154217669541518</v>
+        <v>1.816994876065041</v>
       </c>
       <c r="Q4">
-        <v>1.094113816555221</v>
+        <v>1.822003740186597</v>
       </c>
       <c r="R4">
-        <v>1.245429337868318</v>
+        <v>1.529323964847083</v>
       </c>
       <c r="S4">
-        <v>1.130897805110543</v>
+        <v>1.50359550252489</v>
       </c>
       <c r="T4">
-        <v>1.245429337868318</v>
+        <v>1.529323964847083</v>
       </c>
       <c r="U4">
-        <v>1.205136522463386</v>
+        <v>1.366192162496459</v>
       </c>
       <c r="V4">
-        <v>1.249679752875092</v>
+        <v>1.283750158479401</v>
       </c>
       <c r="W4">
-        <v>1.119220384558602</v>
+        <v>1.15544919652002</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.083337686970799</v>
+        <v>0.8884537953632614</v>
       </c>
       <c r="D5">
-        <v>1.272063946452429</v>
+        <v>1.124514640704802</v>
       </c>
       <c r="E5">
-        <v>1.918670222849598</v>
+        <v>1.107838643202361</v>
       </c>
       <c r="F5">
-        <v>1.918670222849598</v>
+        <v>1.107838643202361</v>
       </c>
       <c r="G5">
-        <v>1.293561884734692</v>
+        <v>0.8353288894071049</v>
       </c>
       <c r="H5">
-        <v>1.372887266745037</v>
+        <v>0.9025406603728854</v>
       </c>
       <c r="I5">
-        <v>1.456267793445341</v>
+        <v>1.063997652961962</v>
       </c>
       <c r="J5">
-        <v>0.8518990952116925</v>
+        <v>0.8724244123753636</v>
       </c>
       <c r="K5">
-        <v>1.918670222849598</v>
+        <v>1.107838643202361</v>
       </c>
       <c r="L5">
-        <v>1.275125397922194</v>
+        <v>3.943870865865985</v>
       </c>
       <c r="M5">
-        <v>1.456267793445341</v>
+        <v>1.063997652961962</v>
       </c>
       <c r="N5">
-        <v>1.918670222849598</v>
+        <v>1.107838643202361</v>
       </c>
       <c r="O5">
-        <v>1.275125397922194</v>
+        <v>3.943870865865985</v>
       </c>
       <c r="P5">
-        <v>1.365696595683768</v>
+        <v>2.503934259413974</v>
       </c>
       <c r="Q5">
-        <v>1.179231542446497</v>
+        <v>2.416162330614623</v>
       </c>
       <c r="R5">
-        <v>1.550021138072378</v>
+        <v>2.038569054010102</v>
       </c>
       <c r="S5">
-        <v>1.271576959446112</v>
+        <v>1.96544077139707</v>
       </c>
       <c r="T5">
-        <v>1.550021138072378</v>
+        <v>2.038569054010102</v>
       </c>
       <c r="U5">
-        <v>1.433350275296983</v>
+        <v>1.751040239348392</v>
       </c>
       <c r="V5">
-        <v>1.530414264807506</v>
+        <v>1.622399920119186</v>
       </c>
       <c r="W5">
-        <v>1.315476661791473</v>
+        <v>1.342371195031716</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.348905562842059</v>
+        <v>0.9609790963857956</v>
       </c>
       <c r="D6">
-        <v>1.452216975573738</v>
+        <v>1.318988547994545</v>
       </c>
       <c r="E6">
-        <v>2.218885252296807</v>
+        <v>1.05941609867716</v>
       </c>
       <c r="F6">
-        <v>2.218885252296807</v>
+        <v>1.05941609867716</v>
       </c>
       <c r="G6">
-        <v>1.392119127836951</v>
+        <v>1.105768386387227</v>
       </c>
       <c r="H6">
-        <v>0.7246722476480973</v>
+        <v>1.020633390424489</v>
       </c>
       <c r="I6">
-        <v>3.277579610696109</v>
+        <v>1.796570353629829</v>
       </c>
       <c r="J6">
-        <v>0.4387669108336945</v>
+        <v>0.7674272743059084</v>
       </c>
       <c r="K6">
-        <v>2.218885252296807</v>
+        <v>1.05941609867716</v>
       </c>
       <c r="L6">
-        <v>2.238600064254573</v>
+        <v>5.330883157330288</v>
       </c>
       <c r="M6">
-        <v>3.277579610696109</v>
+        <v>1.796570353629829</v>
       </c>
       <c r="N6">
-        <v>2.218885252296807</v>
+        <v>1.05941609867716</v>
       </c>
       <c r="O6">
-        <v>2.238600064254573</v>
+        <v>5.330883157330288</v>
       </c>
       <c r="P6">
-        <v>2.758089837475341</v>
+        <v>3.563726755480058</v>
       </c>
       <c r="Q6">
-        <v>1.793752813548316</v>
+        <v>3.145931126858041</v>
       </c>
       <c r="R6">
-        <v>2.578354975749163</v>
+        <v>2.728956536545759</v>
       </c>
       <c r="S6">
-        <v>2.288361745930914</v>
+        <v>2.696144202448638</v>
       </c>
       <c r="T6">
-        <v>2.578354975749163</v>
+        <v>2.728956536545759</v>
       </c>
       <c r="U6">
-        <v>2.270992622522387</v>
+        <v>2.286962176505768</v>
       </c>
       <c r="V6">
-        <v>2.260571148477271</v>
+        <v>2.041452960940046</v>
       </c>
       <c r="W6">
-        <v>1.636468218997754</v>
+        <v>1.670083288141905</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994910082715083</v>
+        <v>1.895040879675067</v>
       </c>
       <c r="D7">
-        <v>0.9992794410692367</v>
+        <v>1.816350868579764</v>
       </c>
       <c r="E7">
-        <v>0.9972897873623754</v>
+        <v>5.677190609823421</v>
       </c>
       <c r="F7">
-        <v>0.9972897873623754</v>
+        <v>5.677190609823421</v>
       </c>
       <c r="G7">
-        <v>0.9972576529940472</v>
+        <v>1.897028849101997</v>
       </c>
       <c r="H7">
-        <v>0.9986877379829672</v>
+        <v>1.896244429949556</v>
       </c>
       <c r="I7">
-        <v>1.007650245354308</v>
+        <v>3.939530589767609</v>
       </c>
       <c r="J7">
-        <v>0.9986215013794889</v>
+        <v>0.0008707677562217644</v>
       </c>
       <c r="K7">
-        <v>0.9972897873623717</v>
+        <v>5.677190609823421</v>
       </c>
       <c r="L7">
-        <v>1.02561603555661</v>
+        <v>0.6414569956602283</v>
       </c>
       <c r="M7">
-        <v>1.007650245354308</v>
+        <v>3.939530589767609</v>
       </c>
       <c r="N7">
-        <v>0.9972897873623754</v>
+        <v>5.677190609823421</v>
       </c>
       <c r="O7">
-        <v>1.02561603555661</v>
+        <v>0.6414569956602283</v>
       </c>
       <c r="P7">
-        <v>1.016633140455459</v>
+        <v>2.290493792713919</v>
       </c>
       <c r="Q7">
-        <v>1.012553521914059</v>
+        <v>1.268248937667648</v>
       </c>
       <c r="R7">
-        <v>1.010185356091098</v>
+        <v>3.419392731750419</v>
       </c>
       <c r="S7">
-        <v>1.010919096394142</v>
+        <v>2.158676155034301</v>
       </c>
       <c r="T7">
-        <v>1.010185356091098</v>
+        <v>3.419392731750419</v>
       </c>
       <c r="U7">
-        <v>1.0075117691362</v>
+        <v>3.038304768731581</v>
       </c>
       <c r="V7">
-        <v>1.005467372781435</v>
+        <v>3.566081936949949</v>
       </c>
       <c r="W7">
-        <v>1.002986676246318</v>
+        <v>2.220464248789233</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9947385582772318</v>
+        <v>1.885810824175682</v>
       </c>
       <c r="D8">
-        <v>0.9976239361296541</v>
+        <v>1.80426359861646</v>
       </c>
       <c r="E8">
-        <v>0.9942855706811037</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="F8">
-        <v>0.9942855706811037</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="G8">
-        <v>0.9958500851353789</v>
+        <v>1.888167297409928</v>
       </c>
       <c r="H8">
-        <v>0.9926410730429109</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="I8">
-        <v>1.03287941147511</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="J8">
-        <v>0.9999795021650112</v>
+        <v>0.0008906558968692118</v>
       </c>
       <c r="K8">
-        <v>0.9942855706810995</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="L8">
-        <v>1.052501816553491</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="M8">
-        <v>1.03287941147511</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="N8">
-        <v>0.9942855706811037</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="O8">
-        <v>1.052501816553491</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="P8">
-        <v>1.0426906140143</v>
+        <v>2.380527927200393</v>
       </c>
       <c r="Q8">
-        <v>1.023620187415361</v>
+        <v>1.307358457759652</v>
       </c>
       <c r="R8">
-        <v>1.026555599569901</v>
+        <v>3.468186715886511</v>
       </c>
       <c r="S8">
-        <v>1.026706595435277</v>
+        <v>2.215622226192156</v>
       </c>
       <c r="T8">
-        <v>1.026555599569901</v>
+        <v>3.468186715886511</v>
       </c>
       <c r="U8">
-        <v>1.018601339246734</v>
+        <v>3.072592742958804</v>
       </c>
       <c r="V8">
-        <v>1.013738185533608</v>
+        <v>3.586775053018792</v>
       </c>
       <c r="W8">
-        <v>1.007562494182487</v>
+        <v>2.233782088379716</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9888031394309403</v>
+        <v>1.881357412305547</v>
       </c>
       <c r="D9">
-        <v>1.009466547255464</v>
+        <v>1.785888255319628</v>
       </c>
       <c r="E9">
-        <v>0.9560578556864886</v>
+        <v>5.617451831420078</v>
       </c>
       <c r="F9">
-        <v>0.9560578556864886</v>
+        <v>5.617451831420078</v>
       </c>
       <c r="G9">
-        <v>1.019799002795659</v>
+        <v>1.884456599634822</v>
       </c>
       <c r="H9">
-        <v>0.9814066430998976</v>
+        <v>1.881078411024271</v>
       </c>
       <c r="I9">
-        <v>1.100568736114495</v>
+        <v>4.037194838160452</v>
       </c>
       <c r="J9">
-        <v>0.9933771690170284</v>
+        <v>0.0009004137213650283</v>
       </c>
       <c r="K9">
-        <v>0.9560578556864846</v>
+        <v>5.617451831420078</v>
       </c>
       <c r="L9">
-        <v>1.07257752020572</v>
+        <v>0.8485226334780168</v>
       </c>
       <c r="M9">
-        <v>1.100568736114495</v>
+        <v>4.037194838160452</v>
       </c>
       <c r="N9">
-        <v>0.9560578556864886</v>
+        <v>5.617451831420078</v>
       </c>
       <c r="O9">
-        <v>1.07257752020572</v>
+        <v>0.8485226334780168</v>
       </c>
       <c r="P9">
-        <v>1.086573128160107</v>
+        <v>2.442858735819234</v>
       </c>
       <c r="Q9">
-        <v>1.03069032981833</v>
+        <v>1.364940022891782</v>
       </c>
       <c r="R9">
-        <v>1.043068037335568</v>
+        <v>3.501056434352849</v>
       </c>
       <c r="S9">
-        <v>1.053983131917052</v>
+        <v>2.255691627981339</v>
       </c>
       <c r="T9">
-        <v>1.043068037335568</v>
+        <v>3.501056434352849</v>
       </c>
       <c r="U9">
-        <v>1.029501812859411</v>
+        <v>3.096131678841024</v>
       </c>
       <c r="V9">
-        <v>1.014813021424826</v>
+        <v>3.600395709356834</v>
       </c>
       <c r="W9">
-        <v>1.015257076700712</v>
+        <v>2.242106299383023</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9818464914717783</v>
+        <v>1.858127615250946</v>
       </c>
       <c r="D10">
-        <v>0.9918484270727357</v>
+        <v>1.725111281724872</v>
       </c>
       <c r="E10">
-        <v>0.9745599959497731</v>
+        <v>5.531714124939622</v>
       </c>
       <c r="F10">
-        <v>0.9745599959497731</v>
+        <v>5.531714124939622</v>
       </c>
       <c r="G10">
-        <v>0.9749255068836895</v>
+        <v>1.86268523849967</v>
       </c>
       <c r="H10">
-        <v>0.9773479108030551</v>
+        <v>1.856023477216898</v>
       </c>
       <c r="I10">
-        <v>1.147242143635425</v>
+        <v>4.538211873972336</v>
       </c>
       <c r="J10">
-        <v>0.9992565175199558</v>
+        <v>0.0009394936505007422</v>
       </c>
       <c r="K10">
-        <v>0.9745599959497683</v>
+        <v>5.531714124939622</v>
       </c>
       <c r="L10">
-        <v>1.166535673079423</v>
+        <v>1.070815626392135</v>
       </c>
       <c r="M10">
-        <v>1.147242143635425</v>
+        <v>4.538211873972336</v>
       </c>
       <c r="N10">
-        <v>0.9745599959497731</v>
+        <v>5.531714124939622</v>
       </c>
       <c r="O10">
-        <v>1.166535673079423</v>
+        <v>1.070815626392135</v>
       </c>
       <c r="P10">
-        <v>1.156888908357424</v>
+        <v>2.804513750182235</v>
       </c>
       <c r="Q10">
-        <v>1.074191082275601</v>
+        <v>1.46447162082154</v>
       </c>
       <c r="R10">
-        <v>1.096112604221541</v>
+        <v>3.713580541768031</v>
       </c>
       <c r="S10">
-        <v>1.098541436062209</v>
+        <v>2.489051705205139</v>
       </c>
       <c r="T10">
-        <v>1.096112604221541</v>
+        <v>3.713580541768032</v>
       </c>
       <c r="U10">
-        <v>1.0675460760341</v>
+        <v>3.24971731013876</v>
       </c>
       <c r="V10">
-        <v>1.048948860017235</v>
+        <v>3.706116673098933</v>
       </c>
       <c r="W10">
-        <v>1.026695333301979</v>
+        <v>2.305453591455873</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9377821049344189</v>
+        <v>1.032852102538762</v>
       </c>
       <c r="D11">
-        <v>0.9892989771092008</v>
+        <v>1.050034734941735</v>
       </c>
       <c r="E11">
-        <v>0.9107505266245541</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="F11">
-        <v>0.9107505266245541</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="G11">
-        <v>1.122147543777405</v>
+        <v>1.040765592933075</v>
       </c>
       <c r="H11">
-        <v>1.001974548398665</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I11">
-        <v>1.444134677132659</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J11">
-        <v>0.9747353337819571</v>
+        <v>0.9578356195411628</v>
       </c>
       <c r="K11">
-        <v>0.9107505266245541</v>
+        <v>1.234621176820523</v>
       </c>
       <c r="L11">
-        <v>1.40062905144651</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="M11">
-        <v>1.444134677132659</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="N11">
-        <v>0.9107505266245541</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="O11">
-        <v>1.40062905144651</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="P11">
-        <v>1.422381864289585</v>
+        <v>1.07757847305165</v>
       </c>
       <c r="Q11">
-        <v>1.169205578190464</v>
+        <v>1.04033081838674</v>
       </c>
       <c r="R11">
-        <v>1.251838085067908</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="S11">
-        <v>1.260848611171196</v>
+        <v>1.062669682880688</v>
       </c>
       <c r="T11">
-        <v>1.251838085067908</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="U11">
-        <v>1.173324090034536</v>
+        <v>1.105657556365648</v>
       </c>
       <c r="V11">
-        <v>1.120809377352539</v>
+        <v>1.131450280456624</v>
       </c>
       <c r="W11">
-        <v>1.097681595400671</v>
+        <v>1.062853771974684</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.26648903531007</v>
+        <v>1.023485416946144</v>
       </c>
       <c r="D12">
-        <v>0.4533893374864226</v>
+        <v>1.017975217514784</v>
       </c>
       <c r="E12">
-        <v>0.04493336651283013</v>
+        <v>1.115690548983565</v>
       </c>
       <c r="F12">
-        <v>0.04493336651283013</v>
+        <v>1.115690548983565</v>
       </c>
       <c r="G12">
-        <v>1.611159066105061</v>
+        <v>1.023827900177311</v>
       </c>
       <c r="H12">
-        <v>1.478040375546571</v>
+        <v>1.023838034523922</v>
       </c>
       <c r="I12">
-        <v>0.002303868019616903</v>
+        <v>1.06641803656143</v>
       </c>
       <c r="J12">
-        <v>0.9634014086910617</v>
+        <v>0.9727363039600634</v>
       </c>
       <c r="K12">
-        <v>0.04493336651283013</v>
+        <v>1.11569054898356</v>
       </c>
       <c r="L12">
-        <v>0.04323703425380294</v>
+        <v>1.027092499970371</v>
       </c>
       <c r="M12">
-        <v>0.002303868019616903</v>
+        <v>1.06641803656143</v>
       </c>
       <c r="N12">
-        <v>0.04493336651283013</v>
+        <v>1.115690548983565</v>
       </c>
       <c r="O12">
-        <v>0.04323703425380294</v>
+        <v>1.027092499970371</v>
       </c>
       <c r="P12">
-        <v>0.02277045113670992</v>
+        <v>1.0467552682659</v>
       </c>
       <c r="Q12">
-        <v>0.6548630347819363</v>
+        <v>1.025288958458258</v>
       </c>
       <c r="R12">
-        <v>0.03015808959541666</v>
+        <v>1.069733695171788</v>
       </c>
       <c r="S12">
-        <v>0.4373433125278299</v>
+        <v>1.038998651159315</v>
       </c>
       <c r="T12">
-        <v>0.03015808959541666</v>
+        <v>1.069733695171789</v>
       </c>
       <c r="U12">
-        <v>0.3392408260240799</v>
+        <v>1.058171625615377</v>
       </c>
       <c r="V12">
-        <v>0.28037933412183</v>
+        <v>1.069675410289015</v>
       </c>
       <c r="W12">
-        <v>0.7328691864906796</v>
+        <v>1.033882994829699</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1101633907951074</v>
+        <v>1.069192224805341</v>
       </c>
       <c r="D13">
-        <v>1.435229108508237</v>
+        <v>1.111009591631799</v>
       </c>
       <c r="E13">
-        <v>2.989604547419959</v>
+        <v>1.308706863125923</v>
       </c>
       <c r="F13">
-        <v>2.989604547419959</v>
+        <v>1.308706863125923</v>
       </c>
       <c r="G13">
-        <v>0.5663888784986911</v>
+        <v>1.084176950850524</v>
       </c>
       <c r="H13">
-        <v>0.06129398204738225</v>
+        <v>1.100041732330282</v>
       </c>
       <c r="I13">
-        <v>2.359723982081764</v>
+        <v>1.255486788100182</v>
       </c>
       <c r="J13">
-        <v>1.202456742315591</v>
+        <v>0.9380289075443858</v>
       </c>
       <c r="K13">
-        <v>2.989604547419959</v>
+        <v>1.308706863125923</v>
       </c>
       <c r="L13">
-        <v>2.195642819680748</v>
+        <v>1.164931370660897</v>
       </c>
       <c r="M13">
-        <v>2.359723982081764</v>
+        <v>1.255486788100182</v>
       </c>
       <c r="N13">
-        <v>2.989604547419959</v>
+        <v>1.308706863125923</v>
       </c>
       <c r="O13">
-        <v>2.195642819680748</v>
+        <v>1.164931370660897</v>
       </c>
       <c r="P13">
-        <v>2.277683400881256</v>
+        <v>1.210209079380539</v>
       </c>
       <c r="Q13">
-        <v>1.152903105237928</v>
+        <v>1.117061797733119</v>
       </c>
       <c r="R13">
-        <v>2.51499044972749</v>
+        <v>1.243041673962334</v>
       </c>
       <c r="S13">
-        <v>1.55517673085254</v>
+        <v>1.163203461188806</v>
       </c>
       <c r="T13">
-        <v>2.51499044972749</v>
+        <v>1.243041673962334</v>
       </c>
       <c r="U13">
-        <v>1.913783684994395</v>
+        <v>1.199579311673086</v>
       </c>
       <c r="V13">
-        <v>2.128947857479507</v>
+        <v>1.221404821963653</v>
       </c>
       <c r="W13">
-        <v>1.365062931418435</v>
+        <v>1.128946803631167</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8251129521803349</v>
+        <v>1.176586779536363</v>
       </c>
       <c r="D14">
-        <v>0.0002127605872356338</v>
+        <v>1.351955081669884</v>
       </c>
       <c r="E14">
-        <v>-0.0001223677793042235</v>
+        <v>1.401626499891844</v>
       </c>
       <c r="F14">
-        <v>-0.0001223677793042235</v>
+        <v>1.401626499891844</v>
       </c>
       <c r="G14">
-        <v>4.374414363102184</v>
+        <v>1.289641986040577</v>
       </c>
       <c r="H14">
-        <v>0.001994453787480644</v>
+        <v>1.294448661163919</v>
       </c>
       <c r="I14">
-        <v>7.670671026192249</v>
+        <v>2.019068747822625</v>
       </c>
       <c r="J14">
-        <v>1.128222240509831</v>
+        <v>0.7128830529469993</v>
       </c>
       <c r="K14">
-        <v>-0.0001223677793042235</v>
+        <v>1.401626499891844</v>
       </c>
       <c r="L14">
-        <v>5.38980186805323E-05</v>
+        <v>1.746754606725835</v>
       </c>
       <c r="M14">
-        <v>7.670671026192249</v>
+        <v>2.019068747822625</v>
       </c>
       <c r="N14">
-        <v>-0.0001223677793042235</v>
+        <v>1.401626499891844</v>
       </c>
       <c r="O14">
-        <v>5.38980186805323E-05</v>
+        <v>1.746754606725835</v>
       </c>
       <c r="P14">
-        <v>3.835362462105464</v>
+        <v>1.88291167727423</v>
       </c>
       <c r="Q14">
-        <v>0.4125834250995077</v>
+        <v>1.461670693131099</v>
       </c>
       <c r="R14">
-        <v>2.556867518810542</v>
+        <v>1.722483284813435</v>
       </c>
       <c r="S14">
-        <v>2.831945958797088</v>
+        <v>1.647470044694941</v>
       </c>
       <c r="T14">
-        <v>2.556867518810542</v>
+        <v>1.722483284813435</v>
       </c>
       <c r="U14">
-        <v>2.12392887715299</v>
+        <v>1.586009158494167</v>
       </c>
       <c r="V14">
-        <v>1.699118628166531</v>
+        <v>1.549132626773702</v>
       </c>
       <c r="W14">
-        <v>1.750069915824836</v>
+        <v>1.374120676974756</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.339395960455954</v>
+        <v>1.042383522070198</v>
       </c>
       <c r="D15">
-        <v>0.05906477380171074</v>
+        <v>1.027322484311146</v>
       </c>
       <c r="E15">
-        <v>-0.0002503768792746595</v>
+        <v>1.196165929180897</v>
       </c>
       <c r="F15">
-        <v>-0.0002503768792746595</v>
+        <v>1.196165929180897</v>
       </c>
       <c r="G15">
-        <v>1.790694063761198</v>
+        <v>1.034076709906686</v>
       </c>
       <c r="H15">
-        <v>1.467031158321971</v>
+        <v>1.029296193134856</v>
       </c>
       <c r="I15">
-        <v>0.01254785470251997</v>
+        <v>1.130506158330388</v>
       </c>
       <c r="J15">
-        <v>1.774618831946871</v>
+        <v>0.9438106002261297</v>
       </c>
       <c r="K15">
-        <v>-0.0002503768792746595</v>
+        <v>1.196165929180893</v>
       </c>
       <c r="L15">
-        <v>0.2434722769406729</v>
+        <v>1.075517402241925</v>
       </c>
       <c r="M15">
-        <v>0.01254785470251997</v>
+        <v>1.130506158330388</v>
       </c>
       <c r="N15">
-        <v>-0.0002503768792746595</v>
+        <v>1.196165929180897</v>
       </c>
       <c r="O15">
-        <v>0.2434722769406729</v>
+        <v>1.075517402241925</v>
       </c>
       <c r="P15">
-        <v>0.1280100658215965</v>
+        <v>1.103011780286157</v>
       </c>
       <c r="Q15">
-        <v>0.7914341186983134</v>
+        <v>1.058950462156061</v>
       </c>
       <c r="R15">
-        <v>0.0852565849213061</v>
+        <v>1.13406316325107</v>
       </c>
       <c r="S15">
-        <v>0.5318053640330489</v>
+        <v>1.082802360880837</v>
       </c>
       <c r="T15">
-        <v>0.0852565849213061</v>
+        <v>1.13406316325107</v>
       </c>
       <c r="U15">
-        <v>0.398791428804968</v>
+        <v>1.111143252955852</v>
       </c>
       <c r="V15">
-        <v>0.3189830676681195</v>
+        <v>1.128147788200861</v>
       </c>
       <c r="W15">
-        <v>0.8358218178814529</v>
+        <v>1.059884874925278</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.566923012286028</v>
+        <v>1.084258076248592</v>
       </c>
       <c r="D16">
-        <v>1.625776190998944</v>
+        <v>1.059803651426809</v>
       </c>
       <c r="E16">
-        <v>4.268200466166679</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="F16">
-        <v>4.268200466166679</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="G16">
-        <v>1.560832102998648</v>
+        <v>1.094679106054869</v>
       </c>
       <c r="H16">
-        <v>1.572722086876986</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I16">
-        <v>2.909552588571048</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J16">
-        <v>0.2388772466703032</v>
+        <v>0.9187278926207247</v>
       </c>
       <c r="K16">
-        <v>4.268200466166679</v>
+        <v>1.427852674521912</v>
       </c>
       <c r="L16">
-        <v>1.955682545332104</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="M16">
-        <v>2.909552588571048</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="N16">
-        <v>4.268200466166679</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="O16">
-        <v>1.955682545332104</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="P16">
-        <v>2.432617566951576</v>
+        <v>1.154217669541518</v>
       </c>
       <c r="Q16">
-        <v>1.761302778809066</v>
+        <v>1.094113816555221</v>
       </c>
       <c r="R16">
-        <v>3.04447853335661</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="S16">
-        <v>2.144052715396393</v>
+        <v>1.130897805110543</v>
       </c>
       <c r="T16">
-        <v>3.04447853335661</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="U16">
-        <v>2.675089653088965</v>
+        <v>1.205136522463386</v>
       </c>
       <c r="V16">
-        <v>2.993711815704507</v>
+        <v>1.249679752875092</v>
       </c>
       <c r="W16">
-        <v>1.962320779987592</v>
+        <v>1.119220384558602</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.334632306161356</v>
+        <v>1.083337686970799</v>
       </c>
       <c r="D17">
-        <v>1.452791022977018</v>
+        <v>1.272063946452429</v>
       </c>
       <c r="E17">
-        <v>3.141440184864841</v>
+        <v>1.918670222849598</v>
       </c>
       <c r="F17">
-        <v>3.141440184864841</v>
+        <v>1.918670222849598</v>
       </c>
       <c r="G17">
-        <v>1.321080748093635</v>
+        <v>1.293561884734692</v>
       </c>
       <c r="H17">
-        <v>1.344577607996484</v>
+        <v>1.372887266745037</v>
       </c>
       <c r="I17">
-        <v>2.233412236774328</v>
+        <v>1.456267793445341</v>
       </c>
       <c r="J17">
-        <v>0.4761995009134166</v>
+        <v>0.8518990952116925</v>
       </c>
       <c r="K17">
-        <v>3.14144018486484</v>
+        <v>1.918670222849598</v>
       </c>
       <c r="L17">
-        <v>2.128012073770051</v>
+        <v>1.275125397922194</v>
       </c>
       <c r="M17">
-        <v>2.233412236774328</v>
+        <v>1.456267793445341</v>
       </c>
       <c r="N17">
-        <v>3.141440184864841</v>
+        <v>1.918670222849598</v>
       </c>
       <c r="O17">
-        <v>2.128012073770051</v>
+        <v>1.275125397922194</v>
       </c>
       <c r="P17">
-        <v>2.18071215527219</v>
+        <v>1.365696595683768</v>
       </c>
       <c r="Q17">
-        <v>1.731322189965704</v>
+        <v>1.179231542446497</v>
       </c>
       <c r="R17">
-        <v>2.500954831803073</v>
+        <v>1.550021138072378</v>
       </c>
       <c r="S17">
-        <v>1.898685538901912</v>
+        <v>1.271576959446112</v>
       </c>
       <c r="T17">
-        <v>2.500954831803073</v>
+        <v>1.550021138072378</v>
       </c>
       <c r="U17">
-        <v>2.209374200392644</v>
+        <v>1.433350275296983</v>
       </c>
       <c r="V17">
-        <v>2.395787397287084</v>
+        <v>1.530414264807506</v>
       </c>
       <c r="W17">
-        <v>1.679018210193891</v>
+        <v>1.315476661791473</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8744707250486213</v>
+        <v>1.348905562842059</v>
       </c>
       <c r="D18">
-        <v>1.100514237810301</v>
+        <v>1.452216975573738</v>
       </c>
       <c r="E18">
-        <v>0.8770477932532461</v>
+        <v>2.218885252296807</v>
       </c>
       <c r="F18">
-        <v>0.8770477932532461</v>
+        <v>2.218885252296807</v>
       </c>
       <c r="G18">
-        <v>0.8413466583103227</v>
+        <v>1.392119127836951</v>
       </c>
       <c r="H18">
-        <v>0.8766010036734747</v>
+        <v>0.7246722476480973</v>
       </c>
       <c r="I18">
-        <v>0.9350638570461965</v>
+        <v>3.277579610696109</v>
       </c>
       <c r="J18">
-        <v>0.9607841175663167</v>
+        <v>0.4387669108336945</v>
       </c>
       <c r="K18">
-        <v>0.8770477932532461</v>
+        <v>2.218885252296807</v>
       </c>
       <c r="L18">
-        <v>2.43083869514366</v>
+        <v>2.238600064254573</v>
       </c>
       <c r="M18">
-        <v>0.9350638570461965</v>
+        <v>3.277579610696109</v>
       </c>
       <c r="N18">
-        <v>0.8770477932532461</v>
+        <v>2.218885252296807</v>
       </c>
       <c r="O18">
-        <v>2.43083869514366</v>
+        <v>2.238600064254573</v>
       </c>
       <c r="P18">
-        <v>1.682951276094929</v>
+        <v>2.758089837475341</v>
       </c>
       <c r="Q18">
-        <v>1.652654710096141</v>
+        <v>1.793752813548316</v>
       </c>
       <c r="R18">
-        <v>1.414316781814368</v>
+        <v>2.578354975749163</v>
       </c>
       <c r="S18">
-        <v>1.413457759079493</v>
+        <v>2.288361745930914</v>
       </c>
       <c r="T18">
-        <v>1.414316781814368</v>
+        <v>2.578354975749163</v>
       </c>
       <c r="U18">
-        <v>1.279355267622931</v>
+        <v>2.270992622522387</v>
       </c>
       <c r="V18">
-        <v>1.198893772748994</v>
+        <v>2.260571148477271</v>
       </c>
       <c r="W18">
-        <v>1.112083385981518</v>
+        <v>1.636468218997754</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7348455731128634</v>
+        <v>0.9994910082715083</v>
       </c>
       <c r="D19">
-        <v>1.129580427667629</v>
+        <v>0.9992794410692367</v>
       </c>
       <c r="E19">
-        <v>0.8389390206303784</v>
+        <v>0.9972897873623754</v>
       </c>
       <c r="F19">
-        <v>0.8389390206303784</v>
+        <v>0.9972897873623754</v>
       </c>
       <c r="G19">
-        <v>0.8771056401594836</v>
+        <v>0.9972576529940472</v>
       </c>
       <c r="H19">
-        <v>0.8584891627943878</v>
+        <v>0.9986877379829672</v>
       </c>
       <c r="I19">
-        <v>0.9694496357517584</v>
+        <v>1.007650245354308</v>
       </c>
       <c r="J19">
-        <v>0.8829309624590228</v>
+        <v>0.9986215013794889</v>
       </c>
       <c r="K19">
-        <v>0.8389390206303784</v>
+        <v>0.9972897873623717</v>
       </c>
       <c r="L19">
-        <v>3.108540898079916</v>
+        <v>1.02561603555661</v>
       </c>
       <c r="M19">
-        <v>0.9694496357517584</v>
+        <v>1.007650245354308</v>
       </c>
       <c r="N19">
-        <v>0.8389390206303784</v>
+        <v>0.9972897873623754</v>
       </c>
       <c r="O19">
-        <v>3.108540898079916</v>
+        <v>1.02561603555661</v>
       </c>
       <c r="P19">
-        <v>2.038995266915837</v>
+        <v>1.016633140455459</v>
       </c>
       <c r="Q19">
-        <v>1.92169323559639</v>
+        <v>1.012553521914059</v>
       </c>
       <c r="R19">
-        <v>1.638976518154017</v>
+        <v>1.010185356091098</v>
       </c>
       <c r="S19">
-        <v>1.604278702314846</v>
+        <v>1.010919096394142</v>
       </c>
       <c r="T19">
-        <v>1.638976518154018</v>
+        <v>1.010185356091098</v>
       </c>
       <c r="U19">
-        <v>1.412943781893729</v>
+        <v>1.0075117691362</v>
       </c>
       <c r="V19">
-        <v>1.298142829641059</v>
+        <v>1.005467372781435</v>
       </c>
       <c r="W19">
-        <v>1.17498516508193</v>
+        <v>1.002986676246318</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.013152350522182</v>
+        <v>0.9947385582772318</v>
       </c>
       <c r="D20">
-        <v>0.9956523166043307</v>
+        <v>0.9976239361296541</v>
       </c>
       <c r="E20">
-        <v>0.9681699309966453</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="F20">
-        <v>0.9681699309966453</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="G20">
-        <v>0.9937594042158062</v>
+        <v>0.9958500851353789</v>
       </c>
       <c r="H20">
-        <v>1.010369271932264</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="I20">
-        <v>0.981409869551117</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="J20">
-        <v>1.002124936650724</v>
+        <v>0.9999795021650112</v>
       </c>
       <c r="K20">
-        <v>0.9681699309966411</v>
+        <v>0.9942855706810995</v>
       </c>
       <c r="L20">
-        <v>1.031086436960122</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="M20">
-        <v>0.981409869551117</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="N20">
-        <v>0.9681699309966453</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="O20">
-        <v>1.031086436960122</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="P20">
-        <v>1.006248153255619</v>
+        <v>1.0426906140143</v>
       </c>
       <c r="Q20">
-        <v>1.022119393741152</v>
+        <v>1.023620187415361</v>
       </c>
       <c r="R20">
-        <v>0.9935554125026279</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="S20">
-        <v>1.008549552344474</v>
+        <v>1.026706595435277</v>
       </c>
       <c r="T20">
-        <v>0.9935554125026279</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="U20">
-        <v>0.9984546470075166</v>
+        <v>1.018601339246734</v>
       </c>
       <c r="V20">
-        <v>0.9923977038053424</v>
+        <v>1.013738185533608</v>
       </c>
       <c r="W20">
-        <v>0.9994655646791489</v>
+        <v>1.007562494182487</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9684489395606513</v>
+        <v>0.9888031394309403</v>
       </c>
       <c r="D21">
-        <v>1.014345576163358</v>
+        <v>1.009466547255464</v>
       </c>
       <c r="E21">
-        <v>1.04540359904483</v>
+        <v>0.9560578556864886</v>
       </c>
       <c r="F21">
-        <v>1.04540359904483</v>
+        <v>0.9560578556864886</v>
       </c>
       <c r="G21">
-        <v>1.009708794559543</v>
+        <v>1.019799002795659</v>
       </c>
       <c r="H21">
-        <v>0.9765831776914726</v>
+        <v>0.9814066430998976</v>
       </c>
       <c r="I21">
-        <v>1.053402545331116</v>
+        <v>1.100568736114495</v>
       </c>
       <c r="J21">
-        <v>1.00084462173809</v>
+        <v>0.9933771690170284</v>
       </c>
       <c r="K21">
-        <v>1.045403599044825</v>
+        <v>0.9560578556864846</v>
       </c>
       <c r="L21">
-        <v>0.9761611713449719</v>
+        <v>1.07257752020572</v>
       </c>
       <c r="M21">
-        <v>1.053402545331116</v>
+        <v>1.100568736114495</v>
       </c>
       <c r="N21">
-        <v>1.04540359904483</v>
+        <v>0.9560578556864886</v>
       </c>
       <c r="O21">
-        <v>0.9761611713449719</v>
+        <v>1.07257752020572</v>
       </c>
       <c r="P21">
-        <v>1.014781858338044</v>
+        <v>1.086573128160107</v>
       </c>
       <c r="Q21">
-        <v>0.9723050554528117</v>
+        <v>1.03069032981833</v>
       </c>
       <c r="R21">
-        <v>1.024989105240306</v>
+        <v>1.043068037335568</v>
       </c>
       <c r="S21">
-        <v>0.9993375520789129</v>
+        <v>1.053983131917052</v>
       </c>
       <c r="T21">
-        <v>1.024989105240306</v>
+        <v>1.043068037335568</v>
       </c>
       <c r="U21">
-        <v>1.010854063820392</v>
+        <v>1.029501812859411</v>
       </c>
       <c r="V21">
-        <v>1.017763970865279</v>
+        <v>1.014813021424826</v>
       </c>
       <c r="W21">
-        <v>1.005612303179254</v>
+        <v>1.015257076700712</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.072552427520612</v>
+        <v>0.9818464914717783</v>
       </c>
       <c r="D22">
-        <v>0.9998569202896523</v>
+        <v>0.9918484270727357</v>
       </c>
       <c r="E22">
-        <v>1.000878197936839</v>
+        <v>0.9745599959497731</v>
       </c>
       <c r="F22">
-        <v>1.000878197936839</v>
+        <v>0.9745599959497731</v>
       </c>
       <c r="G22">
-        <v>1.01770598204543</v>
+        <v>0.9749255068836895</v>
       </c>
       <c r="H22">
-        <v>1.078418074592537</v>
+        <v>0.9773479108030551</v>
       </c>
       <c r="I22">
-        <v>1.236332324159669</v>
+        <v>1.147242143635425</v>
       </c>
       <c r="J22">
-        <v>0.987560336159935</v>
+        <v>0.9992565175199558</v>
       </c>
       <c r="K22">
-        <v>1.000878197936826</v>
+        <v>0.9745599959497683</v>
       </c>
       <c r="L22">
-        <v>1.030282999110336</v>
+        <v>1.166535673079423</v>
       </c>
       <c r="M22">
-        <v>1.236332324159669</v>
+        <v>1.147242143635425</v>
       </c>
       <c r="N22">
-        <v>1.000878197936839</v>
+        <v>0.9745599959497731</v>
       </c>
       <c r="O22">
-        <v>1.030282999110336</v>
+        <v>1.166535673079423</v>
       </c>
       <c r="P22">
-        <v>1.133307661635002</v>
+        <v>1.156888908357424</v>
       </c>
       <c r="Q22">
-        <v>1.051417713315474</v>
+        <v>1.074191082275601</v>
       </c>
       <c r="R22">
-        <v>1.089164507068948</v>
+        <v>1.096112604221541</v>
       </c>
       <c r="S22">
-        <v>1.113055916930205</v>
+        <v>1.098541436062209</v>
       </c>
       <c r="T22">
-        <v>1.089164507068948</v>
+        <v>1.096112604221541</v>
       </c>
       <c r="U22">
-        <v>1.085011487181864</v>
+        <v>1.0675460760341</v>
       </c>
       <c r="V22">
-        <v>1.068184829332859</v>
+        <v>1.048948860017235</v>
       </c>
       <c r="W22">
-        <v>1.052948407726876</v>
+        <v>1.026695333301979</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9377821049344189</v>
+      </c>
+      <c r="D23">
+        <v>0.9892989771092008</v>
+      </c>
+      <c r="E23">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="F23">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="G23">
+        <v>1.122147543777405</v>
+      </c>
+      <c r="H23">
+        <v>1.001974548398665</v>
+      </c>
+      <c r="I23">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="J23">
+        <v>0.9747353337819571</v>
+      </c>
+      <c r="K23">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="L23">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="M23">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="N23">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="O23">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="P23">
+        <v>1.422381864289585</v>
+      </c>
+      <c r="Q23">
+        <v>1.169205578190464</v>
+      </c>
+      <c r="R23">
+        <v>1.251838085067908</v>
+      </c>
+      <c r="S23">
+        <v>1.260848611171196</v>
+      </c>
+      <c r="T23">
+        <v>1.251838085067908</v>
+      </c>
+      <c r="U23">
+        <v>1.173324090034536</v>
+      </c>
+      <c r="V23">
+        <v>1.120809377352539</v>
+      </c>
+      <c r="W23">
+        <v>1.097681595400671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.26648903531007</v>
+      </c>
+      <c r="D24">
+        <v>0.4533893374864226</v>
+      </c>
+      <c r="E24">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="F24">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="G24">
+        <v>1.611159066105061</v>
+      </c>
+      <c r="H24">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="I24">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J24">
+        <v>0.9634014086910617</v>
+      </c>
+      <c r="K24">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="L24">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="M24">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="N24">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="O24">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="P24">
+        <v>0.02277045113670992</v>
+      </c>
+      <c r="Q24">
+        <v>0.6548630347819363</v>
+      </c>
+      <c r="R24">
+        <v>0.03015808959541666</v>
+      </c>
+      <c r="S24">
+        <v>0.4373433125278299</v>
+      </c>
+      <c r="T24">
+        <v>0.03015808959541666</v>
+      </c>
+      <c r="U24">
+        <v>0.3392408260240799</v>
+      </c>
+      <c r="V24">
+        <v>0.28037933412183</v>
+      </c>
+      <c r="W24">
+        <v>0.7328691864906796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1101633907951074</v>
+      </c>
+      <c r="D25">
+        <v>1.435229108508237</v>
+      </c>
+      <c r="E25">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="F25">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="G25">
+        <v>0.5663888784986911</v>
+      </c>
+      <c r="H25">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I25">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="J25">
+        <v>1.202456742315591</v>
+      </c>
+      <c r="K25">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="L25">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="M25">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="N25">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="O25">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="P25">
+        <v>2.277683400881256</v>
+      </c>
+      <c r="Q25">
+        <v>1.152903105237928</v>
+      </c>
+      <c r="R25">
+        <v>2.51499044972749</v>
+      </c>
+      <c r="S25">
+        <v>1.55517673085254</v>
+      </c>
+      <c r="T25">
+        <v>2.51499044972749</v>
+      </c>
+      <c r="U25">
+        <v>1.913783684994395</v>
+      </c>
+      <c r="V25">
+        <v>2.128947857479507</v>
+      </c>
+      <c r="W25">
+        <v>1.365062931418435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8251129521803349</v>
+      </c>
+      <c r="D26">
+        <v>0.0002127605872356338</v>
+      </c>
+      <c r="E26">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="F26">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="G26">
+        <v>4.374414363102184</v>
+      </c>
+      <c r="H26">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="I26">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="J26">
+        <v>1.128222240509831</v>
+      </c>
+      <c r="K26">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="L26">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="M26">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="N26">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="O26">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="P26">
+        <v>3.835362462105464</v>
+      </c>
+      <c r="Q26">
+        <v>0.4125834250995077</v>
+      </c>
+      <c r="R26">
+        <v>2.556867518810542</v>
+      </c>
+      <c r="S26">
+        <v>2.831945958797088</v>
+      </c>
+      <c r="T26">
+        <v>2.556867518810542</v>
+      </c>
+      <c r="U26">
+        <v>2.12392887715299</v>
+      </c>
+      <c r="V26">
+        <v>1.699118628166531</v>
+      </c>
+      <c r="W26">
+        <v>1.750069915824836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.339395960455954</v>
+      </c>
+      <c r="D27">
+        <v>0.05906477380171074</v>
+      </c>
+      <c r="E27">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="F27">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="G27">
+        <v>1.790694063761198</v>
+      </c>
+      <c r="H27">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="I27">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J27">
+        <v>1.774618831946871</v>
+      </c>
+      <c r="K27">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="L27">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="M27">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="N27">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="O27">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="P27">
+        <v>0.1280100658215965</v>
+      </c>
+      <c r="Q27">
+        <v>0.7914341186983134</v>
+      </c>
+      <c r="R27">
+        <v>0.0852565849213061</v>
+      </c>
+      <c r="S27">
+        <v>0.5318053640330489</v>
+      </c>
+      <c r="T27">
+        <v>0.0852565849213061</v>
+      </c>
+      <c r="U27">
+        <v>0.398791428804968</v>
+      </c>
+      <c r="V27">
+        <v>0.3189830676681195</v>
+      </c>
+      <c r="W27">
+        <v>0.8358218178814529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.566923012286028</v>
+      </c>
+      <c r="D28">
+        <v>1.625776190998944</v>
+      </c>
+      <c r="E28">
+        <v>4.268200466166679</v>
+      </c>
+      <c r="F28">
+        <v>4.268200466166679</v>
+      </c>
+      <c r="G28">
+        <v>1.560832102998648</v>
+      </c>
+      <c r="H28">
+        <v>1.572722086876986</v>
+      </c>
+      <c r="I28">
+        <v>2.909552588571048</v>
+      </c>
+      <c r="J28">
+        <v>0.2388772466703032</v>
+      </c>
+      <c r="K28">
+        <v>4.268200466166679</v>
+      </c>
+      <c r="L28">
+        <v>1.955682545332104</v>
+      </c>
+      <c r="M28">
+        <v>2.909552588571048</v>
+      </c>
+      <c r="N28">
+        <v>4.268200466166679</v>
+      </c>
+      <c r="O28">
+        <v>1.955682545332104</v>
+      </c>
+      <c r="P28">
+        <v>2.432617566951576</v>
+      </c>
+      <c r="Q28">
+        <v>1.761302778809066</v>
+      </c>
+      <c r="R28">
+        <v>3.04447853335661</v>
+      </c>
+      <c r="S28">
+        <v>2.144052715396393</v>
+      </c>
+      <c r="T28">
+        <v>3.04447853335661</v>
+      </c>
+      <c r="U28">
+        <v>2.675089653088965</v>
+      </c>
+      <c r="V28">
+        <v>2.993711815704507</v>
+      </c>
+      <c r="W28">
+        <v>1.962320779987592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.334632306161356</v>
+      </c>
+      <c r="D29">
+        <v>1.452791022977018</v>
+      </c>
+      <c r="E29">
+        <v>3.141440184864841</v>
+      </c>
+      <c r="F29">
+        <v>3.141440184864841</v>
+      </c>
+      <c r="G29">
+        <v>1.321080748093635</v>
+      </c>
+      <c r="H29">
+        <v>1.344577607996484</v>
+      </c>
+      <c r="I29">
+        <v>2.233412236774328</v>
+      </c>
+      <c r="J29">
+        <v>0.4761995009134166</v>
+      </c>
+      <c r="K29">
+        <v>3.14144018486484</v>
+      </c>
+      <c r="L29">
+        <v>2.128012073770051</v>
+      </c>
+      <c r="M29">
+        <v>2.233412236774328</v>
+      </c>
+      <c r="N29">
+        <v>3.141440184864841</v>
+      </c>
+      <c r="O29">
+        <v>2.128012073770051</v>
+      </c>
+      <c r="P29">
+        <v>2.18071215527219</v>
+      </c>
+      <c r="Q29">
+        <v>1.731322189965704</v>
+      </c>
+      <c r="R29">
+        <v>2.500954831803073</v>
+      </c>
+      <c r="S29">
+        <v>1.898685538901912</v>
+      </c>
+      <c r="T29">
+        <v>2.500954831803073</v>
+      </c>
+      <c r="U29">
+        <v>2.209374200392644</v>
+      </c>
+      <c r="V29">
+        <v>2.395787397287084</v>
+      </c>
+      <c r="W29">
+        <v>1.679018210193891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8744707250486213</v>
+      </c>
+      <c r="D30">
+        <v>1.100514237810301</v>
+      </c>
+      <c r="E30">
+        <v>0.8770477932532461</v>
+      </c>
+      <c r="F30">
+        <v>0.8770477932532461</v>
+      </c>
+      <c r="G30">
+        <v>0.8413466583103227</v>
+      </c>
+      <c r="H30">
+        <v>0.8766010036734747</v>
+      </c>
+      <c r="I30">
+        <v>0.9350638570461965</v>
+      </c>
+      <c r="J30">
+        <v>0.9607841175663167</v>
+      </c>
+      <c r="K30">
+        <v>0.8770477932532461</v>
+      </c>
+      <c r="L30">
+        <v>2.43083869514366</v>
+      </c>
+      <c r="M30">
+        <v>0.9350638570461965</v>
+      </c>
+      <c r="N30">
+        <v>0.8770477932532461</v>
+      </c>
+      <c r="O30">
+        <v>2.43083869514366</v>
+      </c>
+      <c r="P30">
+        <v>1.682951276094929</v>
+      </c>
+      <c r="Q30">
+        <v>1.652654710096141</v>
+      </c>
+      <c r="R30">
+        <v>1.414316781814368</v>
+      </c>
+      <c r="S30">
+        <v>1.413457759079493</v>
+      </c>
+      <c r="T30">
+        <v>1.414316781814368</v>
+      </c>
+      <c r="U30">
+        <v>1.279355267622931</v>
+      </c>
+      <c r="V30">
+        <v>1.198893772748994</v>
+      </c>
+      <c r="W30">
+        <v>1.112083385981518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7348455731128634</v>
+      </c>
+      <c r="D31">
+        <v>1.129580427667629</v>
+      </c>
+      <c r="E31">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="F31">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="G31">
+        <v>0.8771056401594836</v>
+      </c>
+      <c r="H31">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="I31">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="J31">
+        <v>0.8829309624590228</v>
+      </c>
+      <c r="K31">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="L31">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="M31">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="N31">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="O31">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="P31">
+        <v>2.038995266915837</v>
+      </c>
+      <c r="Q31">
+        <v>1.92169323559639</v>
+      </c>
+      <c r="R31">
+        <v>1.638976518154017</v>
+      </c>
+      <c r="S31">
+        <v>1.604278702314846</v>
+      </c>
+      <c r="T31">
+        <v>1.638976518154018</v>
+      </c>
+      <c r="U31">
+        <v>1.412943781893729</v>
+      </c>
+      <c r="V31">
+        <v>1.298142829641059</v>
+      </c>
+      <c r="W31">
+        <v>1.17498516508193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.77376410520137</v>
+      </c>
+      <c r="D32">
+        <v>1.773359426010685</v>
+      </c>
+      <c r="E32">
+        <v>5.319590195852331</v>
+      </c>
+      <c r="F32">
+        <v>5.319590195852331</v>
+      </c>
+      <c r="G32">
+        <v>1.775766537615341</v>
+      </c>
+      <c r="H32">
+        <v>1.77526128093863</v>
+      </c>
+      <c r="I32">
+        <v>4.379276799786302</v>
+      </c>
+      <c r="J32">
+        <v>0.001033861539123288</v>
+      </c>
+      <c r="K32">
+        <v>5.319590195852331</v>
+      </c>
+      <c r="L32">
+        <v>1.774586404430135</v>
+      </c>
+      <c r="M32">
+        <v>4.379276799786302</v>
+      </c>
+      <c r="N32">
+        <v>5.319590195852331</v>
+      </c>
+      <c r="O32">
+        <v>1.774586404430135</v>
+      </c>
+      <c r="P32">
+        <v>3.076931602108218</v>
+      </c>
+      <c r="Q32">
+        <v>1.774175254815753</v>
+      </c>
+      <c r="R32">
+        <v>3.824484466689589</v>
+      </c>
+      <c r="S32">
+        <v>2.642542436472602</v>
+      </c>
+      <c r="T32">
+        <v>3.824484466689589</v>
+      </c>
+      <c r="U32">
+        <v>3.311804376317534</v>
+      </c>
+      <c r="V32">
+        <v>3.713361540224493</v>
+      </c>
+      <c r="W32">
+        <v>2.321579826421739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.002274351473684211</v>
+      </c>
+      <c r="D33">
+        <v>0.03678103623684208</v>
+      </c>
+      <c r="E33">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="F33">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="G33">
+        <v>0.2256577022578947</v>
+      </c>
+      <c r="H33">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="I33">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="J33">
+        <v>3.405806758792632</v>
+      </c>
+      <c r="K33">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="L33">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="M33">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="N33">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="O33">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="P33">
+        <v>5.910440556295524</v>
+      </c>
+      <c r="Q33">
+        <v>2.504132522274472</v>
+      </c>
+      <c r="R33">
+        <v>3.939841324191752</v>
+      </c>
+      <c r="S33">
+        <v>3.941051821354911</v>
+      </c>
+      <c r="T33">
+        <v>3.939841324191752</v>
+      </c>
+      <c r="U33">
+        <v>2.955449581012235</v>
+      </c>
+      <c r="V33">
+        <v>2.36408823680663</v>
+      </c>
+      <c r="W33">
+        <v>1.936374676294934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.70381911088421</v>
+      </c>
+      <c r="D34">
+        <v>1.709357159325789</v>
+      </c>
+      <c r="E34">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="F34">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="G34">
+        <v>1.706189699675263</v>
+      </c>
+      <c r="H34">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="I34">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="J34">
+        <v>0.001054795799421053</v>
+      </c>
+      <c r="K34">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="L34">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="M34">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="N34">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="O34">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="P34">
+        <v>3.755033406139998</v>
+      </c>
+      <c r="Q34">
+        <v>2.103961242713683</v>
+      </c>
+      <c r="R34">
+        <v>4.206560586652631</v>
+      </c>
+      <c r="S34">
+        <v>3.071295307721402</v>
+      </c>
+      <c r="T34">
+        <v>4.20656058665263</v>
+      </c>
+      <c r="U34">
+        <v>3.580875217710525</v>
+      </c>
+      <c r="V34">
+        <v>3.886623163703999</v>
+      </c>
+      <c r="W34">
+        <v>2.430646337244138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4390317027600822</v>
+      </c>
+      <c r="D35">
+        <v>0.6623398695147692</v>
+      </c>
+      <c r="E35">
+        <v>0.4556216075653894</v>
+      </c>
+      <c r="F35">
+        <v>0.4556216075653894</v>
+      </c>
+      <c r="G35">
+        <v>0.4184016303605279</v>
+      </c>
+      <c r="H35">
+        <v>0.4396228909860921</v>
+      </c>
+      <c r="I35">
+        <v>0.4051617344198129</v>
+      </c>
+      <c r="J35">
+        <v>0.4788414948999383</v>
+      </c>
+      <c r="K35">
+        <v>0.455621607565388</v>
+      </c>
+      <c r="L35">
+        <v>16.38501025765853</v>
+      </c>
+      <c r="M35">
+        <v>0.4051617344198129</v>
+      </c>
+      <c r="N35">
+        <v>0.4556216075653894</v>
+      </c>
+      <c r="O35">
+        <v>16.38501025765853</v>
+      </c>
+      <c r="P35">
+        <v>8.395085996039171</v>
+      </c>
+      <c r="Q35">
+        <v>8.412020980209306</v>
+      </c>
+      <c r="R35">
+        <v>5.748597866547911</v>
+      </c>
+      <c r="S35">
+        <v>5.743067898279475</v>
+      </c>
+      <c r="T35">
+        <v>5.74859786654791</v>
+      </c>
+      <c r="U35">
+        <v>4.421206325600953</v>
+      </c>
+      <c r="V35">
+        <v>3.628089381993841</v>
+      </c>
+      <c r="W35">
+        <v>2.460503898520642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.013152350522182</v>
+      </c>
+      <c r="D36">
+        <v>0.9956523166043307</v>
+      </c>
+      <c r="E36">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="F36">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="G36">
+        <v>0.9937594042158062</v>
+      </c>
+      <c r="H36">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="I36">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="J36">
+        <v>1.002124936650724</v>
+      </c>
+      <c r="K36">
+        <v>0.9681699309966411</v>
+      </c>
+      <c r="L36">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="M36">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="N36">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="O36">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="P36">
+        <v>1.006248153255619</v>
+      </c>
+      <c r="Q36">
+        <v>1.022119393741152</v>
+      </c>
+      <c r="R36">
+        <v>0.9935554125026279</v>
+      </c>
+      <c r="S36">
+        <v>1.008549552344474</v>
+      </c>
+      <c r="T36">
+        <v>0.9935554125026279</v>
+      </c>
+      <c r="U36">
+        <v>0.9984546470075166</v>
+      </c>
+      <c r="V36">
+        <v>0.9923977038053424</v>
+      </c>
+      <c r="W36">
+        <v>0.9994655646791489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9684489395606513</v>
+      </c>
+      <c r="D37">
+        <v>1.014345576163358</v>
+      </c>
+      <c r="E37">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="F37">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="G37">
+        <v>1.009708794559543</v>
+      </c>
+      <c r="H37">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="I37">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="J37">
+        <v>1.00084462173809</v>
+      </c>
+      <c r="K37">
+        <v>1.045403599044825</v>
+      </c>
+      <c r="L37">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="M37">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="N37">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="O37">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="P37">
+        <v>1.014781858338044</v>
+      </c>
+      <c r="Q37">
+        <v>0.9723050554528117</v>
+      </c>
+      <c r="R37">
+        <v>1.024989105240306</v>
+      </c>
+      <c r="S37">
+        <v>0.9993375520789129</v>
+      </c>
+      <c r="T37">
+        <v>1.024989105240306</v>
+      </c>
+      <c r="U37">
+        <v>1.010854063820392</v>
+      </c>
+      <c r="V37">
+        <v>1.017763970865279</v>
+      </c>
+      <c r="W37">
+        <v>1.005612303179254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.072552427520612</v>
+      </c>
+      <c r="D38">
+        <v>0.9998569202896523</v>
+      </c>
+      <c r="E38">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="F38">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="G38">
+        <v>1.01770598204543</v>
+      </c>
+      <c r="H38">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="I38">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="J38">
+        <v>0.987560336159935</v>
+      </c>
+      <c r="K38">
+        <v>1.000878197936826</v>
+      </c>
+      <c r="L38">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="M38">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="N38">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="O38">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="P38">
+        <v>1.133307661635002</v>
+      </c>
+      <c r="Q38">
+        <v>1.051417713315474</v>
+      </c>
+      <c r="R38">
+        <v>1.089164507068948</v>
+      </c>
+      <c r="S38">
+        <v>1.113055916930205</v>
+      </c>
+      <c r="T38">
+        <v>1.089164507068948</v>
+      </c>
+      <c r="U38">
+        <v>1.085011487181864</v>
+      </c>
+      <c r="V38">
+        <v>1.068184829332859</v>
+      </c>
+      <c r="W38">
+        <v>1.052948407726876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.23409205624459</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.249071191726129</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.680165514670602</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.680165514670602</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.093159468411679</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.098285379294338</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.7134201058205806</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.008162520675988</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.6801655146705999</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.096734407992369</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.7134201058205806</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.680165514670602</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.096734407992369</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9050772569064749</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.16541323211848</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.8301066761611841</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.014748856685846</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.8301066761611841</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9311030211820355</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.8809155198797487</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.021636330604534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8531509920525721</v>
+      </c>
+      <c r="D40">
+        <v>1.115569649325903</v>
+      </c>
+      <c r="E40">
+        <v>0.8633979588803194</v>
+      </c>
+      <c r="F40">
+        <v>0.8633979588803194</v>
+      </c>
+      <c r="G40">
+        <v>0.8396433868791334</v>
+      </c>
+      <c r="H40">
+        <v>0.8723251767780055</v>
+      </c>
+      <c r="I40">
+        <v>0.9468238170950675</v>
+      </c>
+      <c r="J40">
+        <v>1.016451494365363</v>
+      </c>
+      <c r="K40">
+        <v>0.8633979588803167</v>
+      </c>
+      <c r="L40">
+        <v>1.943934907918076</v>
+      </c>
+      <c r="M40">
+        <v>0.9468238170950675</v>
+      </c>
+      <c r="N40">
+        <v>0.8633979588803194</v>
+      </c>
+      <c r="O40">
+        <v>1.943934907918076</v>
+      </c>
+      <c r="P40">
+        <v>1.445379362506572</v>
+      </c>
+      <c r="Q40">
+        <v>1.398542949985324</v>
+      </c>
+      <c r="R40">
+        <v>1.251385561297821</v>
+      </c>
+      <c r="S40">
+        <v>1.247969905688572</v>
+      </c>
+      <c r="T40">
+        <v>1.251385561297821</v>
+      </c>
+      <c r="U40">
+        <v>1.151826918986509</v>
+      </c>
+      <c r="V40">
+        <v>1.094141126965271</v>
+      </c>
+      <c r="W40">
+        <v>1.056412172911805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.8955643892368778</v>
+      </c>
+      <c r="D41">
+        <v>1.197589546892381</v>
+      </c>
+      <c r="E41">
+        <v>1.403889866404982</v>
+      </c>
+      <c r="F41">
+        <v>1.403889866404982</v>
+      </c>
+      <c r="G41">
+        <v>0.5855136793800255</v>
+      </c>
+      <c r="H41">
+        <v>1.137239365503317</v>
+      </c>
+      <c r="I41">
+        <v>0.4811299782088445</v>
+      </c>
+      <c r="J41">
+        <v>0.9268856643122203</v>
+      </c>
+      <c r="K41">
+        <v>1.403889866404977</v>
+      </c>
+      <c r="L41">
+        <v>1.089458707899161</v>
+      </c>
+      <c r="M41">
+        <v>0.4811299782088445</v>
+      </c>
+      <c r="N41">
+        <v>1.403889866404982</v>
+      </c>
+      <c r="O41">
+        <v>1.089458707899161</v>
+      </c>
+      <c r="P41">
+        <v>0.7852943430540027</v>
+      </c>
+      <c r="Q41">
+        <v>0.9925115485680194</v>
+      </c>
+      <c r="R41">
+        <v>0.9914928508376626</v>
+      </c>
+      <c r="S41">
+        <v>0.822051025114961</v>
+      </c>
+      <c r="T41">
+        <v>0.9914928508376626</v>
+      </c>
+      <c r="U41">
+        <v>0.9675107354374664</v>
+      </c>
+      <c r="V41">
+        <v>1.05478656163097</v>
+      </c>
+      <c r="W41">
+        <v>0.9646588997297261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6195596466506476</v>
+      </c>
+      <c r="D42">
+        <v>1.747684065003527</v>
+      </c>
+      <c r="E42">
+        <v>1.558264048630329</v>
+      </c>
+      <c r="F42">
+        <v>1.558264048630329</v>
+      </c>
+      <c r="G42">
+        <v>0.6056582192554447</v>
+      </c>
+      <c r="H42">
+        <v>0.9442924166893453</v>
+      </c>
+      <c r="I42">
+        <v>0.5903299228948865</v>
+      </c>
+      <c r="J42">
+        <v>0.6242050780786934</v>
+      </c>
+      <c r="K42">
+        <v>1.558264048630321</v>
+      </c>
+      <c r="L42">
+        <v>1.771203245679554</v>
+      </c>
+      <c r="M42">
+        <v>0.5903299228948865</v>
+      </c>
+      <c r="N42">
+        <v>1.558264048630329</v>
+      </c>
+      <c r="O42">
+        <v>1.771203245679554</v>
+      </c>
+      <c r="P42">
+        <v>1.18076658428722</v>
+      </c>
+      <c r="Q42">
+        <v>1.195381446165101</v>
+      </c>
+      <c r="R42">
+        <v>1.30659907240159</v>
+      </c>
+      <c r="S42">
+        <v>0.9936976050750292</v>
+      </c>
+      <c r="T42">
+        <v>1.30659907240159</v>
+      </c>
+      <c r="U42">
+        <v>1.134839215963854</v>
+      </c>
+      <c r="V42">
+        <v>1.219524182497149</v>
+      </c>
+      <c r="W42">
+        <v>1.057649580360303</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.196165929180897</v>
+        <v>0.9947385582772318</v>
       </c>
       <c r="D3">
-        <v>1.130506158330388</v>
+        <v>0.9976239361296541</v>
       </c>
       <c r="E3">
-        <v>1.075517402241925</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="F3">
-        <v>1.196165929180897</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="G3">
-        <v>1.042383522070198</v>
+        <v>0.9958500851353789</v>
       </c>
       <c r="H3">
-        <v>1.027322484311146</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="I3">
-        <v>1.196165929180893</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="J3">
-        <v>1.130506158330388</v>
+        <v>0.9999795021650112</v>
       </c>
       <c r="K3">
-        <v>0.9438106002261297</v>
+        <v>0.9942855706810995</v>
       </c>
       <c r="L3">
-        <v>1.029296193134856</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="M3">
-        <v>1.034076709906686</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="N3">
-        <v>1.196165929180897</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="O3">
-        <v>1.075517402241925</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="P3">
-        <v>1.103011780286156</v>
+        <v>1.0426906140143</v>
       </c>
       <c r="Q3">
-        <v>1.058950462156061</v>
+        <v>1.023620187415361</v>
       </c>
       <c r="R3">
-        <v>1.13406316325107</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="S3">
-        <v>1.082802360880837</v>
+        <v>1.026706595435277</v>
       </c>
       <c r="T3">
-        <v>1.13406316325107</v>
+        <v>1.026555599569901</v>
       </c>
       <c r="U3">
-        <v>1.111143252955852</v>
+        <v>1.018601339246734</v>
       </c>
       <c r="V3">
-        <v>1.128147788200861</v>
+        <v>1.013738185533608</v>
       </c>
       <c r="W3">
-        <v>1.059884874925278</v>
+        <v>1.007562494182487</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.427852674521916</v>
+        <v>0.8531509920525721</v>
       </c>
       <c r="D4">
-        <v>1.204465782221185</v>
+        <v>1.115569649325903</v>
       </c>
       <c r="E4">
-        <v>1.103969556861851</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="F4">
-        <v>1.427852674521916</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="G4">
-        <v>1.084258076248592</v>
+        <v>0.8396433868791334</v>
       </c>
       <c r="H4">
-        <v>1.059803651426809</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="I4">
-        <v>1.427852674521912</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="J4">
-        <v>1.204465782221185</v>
+        <v>1.016451494365363</v>
       </c>
       <c r="K4">
-        <v>0.9187278926207249</v>
+        <v>0.8633979588803167</v>
       </c>
       <c r="L4">
-        <v>1.060006336512867</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="M4">
-        <v>1.094679106054869</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="N4">
-        <v>1.427852674521916</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="O4">
-        <v>1.103969556861851</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="P4">
-        <v>1.154217669541518</v>
+        <v>1.445379362506572</v>
       </c>
       <c r="Q4">
-        <v>1.094113816555221</v>
+        <v>1.398542949985324</v>
       </c>
       <c r="R4">
-        <v>1.245429337868318</v>
+        <v>1.251385561297821</v>
       </c>
       <c r="S4">
-        <v>1.130897805110542</v>
+        <v>1.247969905688572</v>
       </c>
       <c r="T4">
-        <v>1.245429337868318</v>
+        <v>1.251385561297821</v>
       </c>
       <c r="U4">
-        <v>1.205136522463386</v>
+        <v>1.151826918986509</v>
       </c>
       <c r="V4">
-        <v>1.249679752875092</v>
+        <v>1.094141126965271</v>
       </c>
       <c r="W4">
-        <v>1.119220384558602</v>
+        <v>1.056412172911805</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.918670222849598</v>
+        <v>0.8824252282448501</v>
       </c>
       <c r="D5">
-        <v>1.456267793445341</v>
+        <v>1.110554507403291</v>
       </c>
       <c r="E5">
-        <v>1.275125397922194</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="F5">
-        <v>1.918670222849598</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="G5">
-        <v>1.083337686970799</v>
+        <v>0.8556736736000023</v>
       </c>
       <c r="H5">
-        <v>1.272063946452429</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I5">
-        <v>1.918670222849598</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J5">
-        <v>1.456267793445341</v>
+        <v>0.8944887454379963</v>
       </c>
       <c r="K5">
-        <v>0.8518990952116925</v>
+        <v>1.026900162382973</v>
       </c>
       <c r="L5">
-        <v>1.372887266745037</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="M5">
-        <v>1.293561884734692</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="N5">
-        <v>1.918670222849598</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="O5">
-        <v>1.275125397922194</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="P5">
-        <v>1.365696595683768</v>
+        <v>2.026143291682227</v>
       </c>
       <c r="Q5">
-        <v>1.179231542446497</v>
+        <v>2.005278817765442</v>
       </c>
       <c r="R5">
-        <v>1.550021138072378</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="S5">
-        <v>1.271576959446112</v>
+        <v>1.644903937203101</v>
       </c>
       <c r="T5">
-        <v>1.550021138072378</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="U5">
-        <v>1.433350275296983</v>
+        <v>1.49040299349807</v>
       </c>
       <c r="V5">
-        <v>1.530414264807506</v>
+        <v>1.397702427275051</v>
       </c>
       <c r="W5">
-        <v>1.315476661791473</v>
+        <v>1.215235455188169</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.218885252296807</v>
+        <v>0.4390317027600822</v>
       </c>
       <c r="D6">
-        <v>3.277579610696109</v>
+        <v>0.6623398695147692</v>
       </c>
       <c r="E6">
-        <v>2.238600064254573</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="F6">
-        <v>2.218885252296807</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="G6">
-        <v>1.348905562842059</v>
+        <v>0.4184016303605279</v>
       </c>
       <c r="H6">
-        <v>1.452216975573738</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="I6">
-        <v>2.218885252296807</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="J6">
-        <v>3.277579610696109</v>
+        <v>0.4788414948999383</v>
       </c>
       <c r="K6">
-        <v>0.4387669108336945</v>
+        <v>0.455621607565388</v>
       </c>
       <c r="L6">
-        <v>0.7246722476480973</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="M6">
-        <v>1.392119127836951</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="N6">
-        <v>2.218885252296807</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="O6">
-        <v>2.238600064254573</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="P6">
-        <v>2.758089837475341</v>
+        <v>8.395085996039171</v>
       </c>
       <c r="Q6">
-        <v>1.793752813548316</v>
+        <v>8.412020980209306</v>
       </c>
       <c r="R6">
-        <v>2.578354975749163</v>
+        <v>5.748597866547911</v>
       </c>
       <c r="S6">
-        <v>2.288361745930914</v>
+        <v>5.743067898279475</v>
       </c>
       <c r="T6">
-        <v>2.578354975749163</v>
+        <v>5.74859786654791</v>
       </c>
       <c r="U6">
-        <v>2.270992622522387</v>
+        <v>4.421206325600953</v>
       </c>
       <c r="V6">
-        <v>2.260571148477271</v>
+        <v>3.628089381993841</v>
       </c>
       <c r="W6">
-        <v>1.636468218997754</v>
+        <v>2.460503898520642</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9972897873623759</v>
+        <v>1.032852102538762</v>
       </c>
       <c r="D7">
-        <v>1.007650245354307</v>
+        <v>1.050034734941735</v>
       </c>
       <c r="E7">
-        <v>1.02561603555661</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="F7">
-        <v>0.9972897873623759</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="G7">
-        <v>0.9994910082715088</v>
+        <v>1.040765592933075</v>
       </c>
       <c r="H7">
-        <v>0.9992794410692366</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I7">
-        <v>0.9972897873623723</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J7">
-        <v>1.007650245354307</v>
+        <v>0.9578356195411628</v>
       </c>
       <c r="K7">
-        <v>0.9986215013794884</v>
+        <v>1.234621176820523</v>
       </c>
       <c r="L7">
-        <v>0.9986877379829663</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="M7">
-        <v>0.9972576529940467</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="N7">
-        <v>0.9972897873623759</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="O7">
-        <v>1.02561603555661</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="P7">
-        <v>1.016633140455458</v>
+        <v>1.07757847305165</v>
       </c>
       <c r="Q7">
-        <v>1.01255352191406</v>
+        <v>1.04033081838674</v>
       </c>
       <c r="R7">
-        <v>1.010185356091098</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="S7">
-        <v>1.010919096394142</v>
+        <v>1.062669682880688</v>
       </c>
       <c r="T7">
-        <v>1.010185356091098</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="U7">
-        <v>1.007511769136201</v>
+        <v>1.105657556365648</v>
       </c>
       <c r="V7">
-        <v>1.005467372781436</v>
+        <v>1.131450280456624</v>
       </c>
       <c r="W7">
-        <v>1.002986676246318</v>
+        <v>1.062853771974684</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.994285570681103</v>
+        <v>0.9684489395606513</v>
       </c>
       <c r="D8">
-        <v>1.03287941147511</v>
+        <v>1.014345576163358</v>
       </c>
       <c r="E8">
-        <v>1.052501816553486</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="F8">
-        <v>0.994285570681103</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="G8">
-        <v>0.9947385582772318</v>
+        <v>1.009708794559543</v>
       </c>
       <c r="H8">
-        <v>0.9976239361296546</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="I8">
-        <v>0.9942855706810988</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="J8">
-        <v>1.03287941147511</v>
+        <v>1.00084462173809</v>
       </c>
       <c r="K8">
-        <v>0.9999795021650105</v>
+        <v>1.045403599044825</v>
       </c>
       <c r="L8">
-        <v>0.9926410730429103</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="M8">
-        <v>0.9958500851353799</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="N8">
-        <v>0.994285570681103</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="O8">
-        <v>1.052501816553486</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="P8">
-        <v>1.042690614014298</v>
+        <v>1.014781858338044</v>
       </c>
       <c r="Q8">
-        <v>1.023620187415359</v>
+        <v>0.9723050554528117</v>
       </c>
       <c r="R8">
-        <v>1.0265555995699</v>
+        <v>1.024989105240306</v>
       </c>
       <c r="S8">
-        <v>1.026706595435276</v>
+        <v>0.9993375520789129</v>
       </c>
       <c r="T8">
-        <v>1.0265555995699</v>
+        <v>1.024989105240306</v>
       </c>
       <c r="U8">
-        <v>1.018601339246733</v>
+        <v>1.010854063820392</v>
       </c>
       <c r="V8">
-        <v>1.013738185533607</v>
+        <v>1.017763970865279</v>
       </c>
       <c r="W8">
-        <v>1.007562494182486</v>
+        <v>1.005612303179254</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9560578556864886</v>
+        <v>1.084258076248592</v>
       </c>
       <c r="D9">
-        <v>1.100568736114495</v>
+        <v>1.059803651426809</v>
       </c>
       <c r="E9">
-        <v>1.07257752020572</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="F9">
-        <v>0.9560578556864886</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="G9">
-        <v>0.9888031394309403</v>
+        <v>1.094679106054869</v>
       </c>
       <c r="H9">
-        <v>1.009466547255464</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I9">
-        <v>0.9560578556864848</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J9">
-        <v>1.100568736114495</v>
+        <v>0.9187278926207247</v>
       </c>
       <c r="K9">
-        <v>0.9933771690170284</v>
+        <v>1.427852674521912</v>
       </c>
       <c r="L9">
-        <v>0.9814066430998974</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="M9">
-        <v>1.019799002795659</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="N9">
-        <v>0.9560578556864886</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="O9">
-        <v>1.07257752020572</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="P9">
-        <v>1.086573128160107</v>
+        <v>1.154217669541518</v>
       </c>
       <c r="Q9">
-        <v>1.03069032981833</v>
+        <v>1.094113816555221</v>
       </c>
       <c r="R9">
-        <v>1.043068037335568</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="S9">
-        <v>1.053983131917052</v>
+        <v>1.130897805110543</v>
       </c>
       <c r="T9">
-        <v>1.043068037335568</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="U9">
-        <v>1.029501812859411</v>
+        <v>1.205136522463386</v>
       </c>
       <c r="V9">
-        <v>1.014813021424826</v>
+        <v>1.249679752875092</v>
       </c>
       <c r="W9">
-        <v>1.015257076700712</v>
+        <v>1.119220384558602</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9745599959497731</v>
+        <v>0.3522752019196284</v>
       </c>
       <c r="D10">
-        <v>1.147242143635425</v>
+        <v>0.6934856875091883</v>
       </c>
       <c r="E10">
-        <v>1.166535673079423</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="F10">
-        <v>0.9745599959497731</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="G10">
-        <v>0.9818464914717784</v>
+        <v>0.4162136725278139</v>
       </c>
       <c r="H10">
-        <v>0.9918484270727357</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="I10">
-        <v>0.9745599959497683</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="J10">
-        <v>1.147242143635425</v>
+        <v>0.4632029117596649</v>
       </c>
       <c r="K10">
-        <v>0.9992565175199558</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="L10">
-        <v>0.9773479108030551</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="M10">
-        <v>0.9749255068836895</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="N10">
-        <v>0.9745599959497731</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="O10">
-        <v>1.166535673079423</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="P10">
-        <v>1.156888908357424</v>
+        <v>8.590055568340205</v>
       </c>
       <c r="Q10">
-        <v>1.074191082275601</v>
+        <v>8.539170714048106</v>
       </c>
       <c r="R10">
-        <v>1.096112604221541</v>
+        <v>5.865043808827989</v>
       </c>
       <c r="S10">
-        <v>1.098541436062209</v>
+        <v>5.844128779533346</v>
       </c>
       <c r="T10">
-        <v>1.096112604221541</v>
+        <v>5.865043808827989</v>
       </c>
       <c r="U10">
-        <v>1.0675460760341</v>
+        <v>4.486851657100899</v>
       </c>
       <c r="V10">
-        <v>1.048948860017235</v>
+        <v>3.672485383641431</v>
       </c>
       <c r="W10">
-        <v>1.026695333301979</v>
+        <v>2.490884415832516</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9107505266245541</v>
+        <v>0.8099498835600872</v>
       </c>
       <c r="D11">
-        <v>1.444134677132659</v>
+        <v>1.448407174316428</v>
       </c>
       <c r="E11">
-        <v>1.40062905144651</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="F11">
-        <v>0.9107505266245541</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="G11">
-        <v>0.9377821049344189</v>
+        <v>0.4280875206920597</v>
       </c>
       <c r="H11">
-        <v>0.9892989771092007</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="I11">
-        <v>0.9107505266245541</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="J11">
-        <v>1.444134677132659</v>
+        <v>0.7439920320732716</v>
       </c>
       <c r="K11">
-        <v>0.9747353337819575</v>
+        <v>1.242616079988107</v>
       </c>
       <c r="L11">
-        <v>1.001974548398665</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="M11">
-        <v>1.122147543777405</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="N11">
-        <v>0.9107505266245541</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="O11">
-        <v>1.40062905144651</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="P11">
-        <v>1.422381864289585</v>
+        <v>1.166341153531596</v>
       </c>
       <c r="Q11">
-        <v>1.169205578190464</v>
+        <v>1.417751365278745</v>
       </c>
       <c r="R11">
-        <v>1.251838085067908</v>
+        <v>1.191766129017101</v>
       </c>
       <c r="S11">
-        <v>1.260848611171196</v>
+        <v>1.047544063541093</v>
       </c>
       <c r="T11">
-        <v>1.251838085067908</v>
+        <v>1.191766129017101</v>
       </c>
       <c r="U11">
-        <v>1.173324090034536</v>
+        <v>1.096312067652847</v>
       </c>
       <c r="V11">
-        <v>1.120809377352539</v>
+        <v>1.1255728701199</v>
       </c>
       <c r="W11">
-        <v>1.097681595400671</v>
+        <v>1.010578406994876</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04493336651283013</v>
+        <v>0.7105096492133276</v>
       </c>
       <c r="D12">
-        <v>0.00230386801961691</v>
+        <v>1.107226096746606</v>
       </c>
       <c r="E12">
-        <v>0.04323703425380294</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="F12">
-        <v>0.04493336651283013</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="G12">
-        <v>1.266489035310069</v>
+        <v>0.8240843149651044</v>
       </c>
       <c r="H12">
-        <v>0.453389337486422</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="I12">
-        <v>0.04493336651283013</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="J12">
-        <v>0.00230386801961691</v>
+        <v>0.8527474114158495</v>
       </c>
       <c r="K12">
-        <v>0.9634014086910617</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="L12">
-        <v>1.47804037554657</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="M12">
-        <v>1.611159066105062</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="N12">
-        <v>0.04493336651283013</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="O12">
-        <v>0.04323703425380294</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="P12">
-        <v>0.02277045113670993</v>
+        <v>2.503791416676467</v>
       </c>
       <c r="Q12">
-        <v>0.654863034781936</v>
+        <v>2.44725741269839</v>
       </c>
       <c r="R12">
-        <v>0.03015808959541666</v>
+        <v>1.956040529102845</v>
       </c>
       <c r="S12">
-        <v>0.4373433125278297</v>
+        <v>1.906030827522087</v>
       </c>
       <c r="T12">
-        <v>0.03015808959541666</v>
+        <v>1.956040529102845</v>
       </c>
       <c r="U12">
-        <v>0.3392408260240798</v>
+        <v>1.644657809130465</v>
       </c>
       <c r="V12">
-        <v>0.2803793341218299</v>
+        <v>1.487833998095492</v>
       </c>
       <c r="W12">
-        <v>0.7328691864906792</v>
+        <v>1.269536463452221</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.989604547419958</v>
+        <v>0.787619292183129</v>
       </c>
       <c r="D13">
-        <v>2.359723982081764</v>
+        <v>1.000977970448148</v>
       </c>
       <c r="E13">
-        <v>2.195642819680748</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="F13">
-        <v>2.989604547419958</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="G13">
-        <v>0.1101633907951074</v>
+        <v>1.122007963506848</v>
       </c>
       <c r="H13">
-        <v>1.435229108508238</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="I13">
-        <v>2.989604547419958</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="J13">
-        <v>2.359723982081764</v>
+        <v>0.9893647556907305</v>
       </c>
       <c r="K13">
-        <v>1.20245674231559</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="L13">
-        <v>0.06129398204738203</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="M13">
-        <v>0.5663888784986912</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="N13">
-        <v>2.989604547419958</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="O13">
-        <v>2.195642819680748</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="P13">
-        <v>2.277683400881256</v>
+        <v>1.249259306949865</v>
       </c>
       <c r="Q13">
-        <v>1.152903105237927</v>
+        <v>0.9648580266833766</v>
       </c>
       <c r="R13">
-        <v>2.51499044972749</v>
+        <v>1.171933447093837</v>
       </c>
       <c r="S13">
-        <v>1.55517673085254</v>
+        <v>1.095379302027619</v>
       </c>
       <c r="T13">
-        <v>2.51499044972749</v>
+        <v>1.171933447093837</v>
       </c>
       <c r="U13">
-        <v>1.913783684994394</v>
+        <v>1.07585490836616</v>
       </c>
       <c r="V13">
-        <v>2.128947857479507</v>
+        <v>1.064140272169284</v>
       </c>
       <c r="W13">
-        <v>1.365062931418435</v>
+        <v>1.045388918359616</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0001223677793042244</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="D14">
-        <v>7.670671026192246</v>
+        <v>0.2240137299999997</v>
       </c>
       <c r="E14">
-        <v>5.389801868053286E-05</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="F14">
-        <v>-0.0001223677793042244</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="G14">
-        <v>0.8251129521803355</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="H14">
-        <v>0.0002127605872356335</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I14">
-        <v>-0.0001223677793042244</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="J14">
-        <v>7.670671026192246</v>
+        <v>0.0008257495699999993</v>
       </c>
       <c r="K14">
-        <v>1.128222240509833</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="L14">
-        <v>0.001994453787480646</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="M14">
-        <v>4.374414363102183</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="N14">
-        <v>-0.0001223677793042244</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="O14">
-        <v>5.389801868053286E-05</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="P14">
-        <v>3.835362462105463</v>
+        <v>15.19253647089998</v>
       </c>
       <c r="Q14">
-        <v>0.412583425099508</v>
+        <v>15.19168282339998</v>
       </c>
       <c r="R14">
-        <v>2.556867518810541</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="S14">
-        <v>2.831945958797087</v>
+        <v>10.12882086286665</v>
       </c>
       <c r="T14">
-        <v>2.556867518810541</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="U14">
-        <v>2.12392887715299</v>
+        <v>7.59591760442499</v>
       </c>
       <c r="V14">
-        <v>1.699118628166531</v>
+        <v>6.076175649359992</v>
       </c>
       <c r="W14">
-        <v>1.750069915824836</v>
+        <v>3.825279316146245</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0002503768792746597</v>
+        <v>0.0026934539</v>
       </c>
       <c r="D15">
-        <v>0.01254785470251998</v>
+        <v>0.0078785505</v>
       </c>
       <c r="E15">
-        <v>0.2434722769406729</v>
+        <v>0.0062360681</v>
       </c>
       <c r="F15">
-        <v>-0.0002503768792746597</v>
+        <v>0.0062360681</v>
       </c>
       <c r="G15">
-        <v>1.339395960455954</v>
+        <v>0.049551524</v>
       </c>
       <c r="H15">
-        <v>0.05906477380171075</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="I15">
-        <v>-0.0002503768792746597</v>
+        <v>60.759821</v>
       </c>
       <c r="J15">
-        <v>0.01254785470251998</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="K15">
-        <v>1.774618831946872</v>
+        <v>0.0062360681</v>
       </c>
       <c r="L15">
-        <v>1.467031158321971</v>
+        <v>0.0030969418</v>
       </c>
       <c r="M15">
-        <v>1.790694063761198</v>
+        <v>60.759821</v>
       </c>
       <c r="N15">
-        <v>-0.0002503768792746597</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O15">
-        <v>0.2434722769406729</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P15">
-        <v>0.1280100658215965</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q15">
-        <v>0.7914341186983135</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R15">
-        <v>0.0852565849213061</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S15">
-        <v>0.531805364033049</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T15">
-        <v>0.0852565849213061</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U15">
-        <v>0.3987914288049681</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V15">
-        <v>0.3189830676681195</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W15">
-        <v>0.8358218178814529</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9681699309966444</v>
+        <v>0.0013896468</v>
       </c>
       <c r="D16">
-        <v>0.9814098695511184</v>
+        <v>0.22401373</v>
       </c>
       <c r="E16">
-        <v>1.031086436960121</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="F16">
-        <v>0.9681699309966444</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="G16">
-        <v>1.013152350522182</v>
+        <v>-0.0050457973</v>
       </c>
       <c r="H16">
-        <v>0.9956523166043286</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I16">
-        <v>0.9681699309966401</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J16">
-        <v>0.9814098695511184</v>
+        <v>0.00082574959</v>
       </c>
       <c r="K16">
-        <v>1.002124936650724</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="L16">
-        <v>1.010369271932264</v>
+        <v>30.381976</v>
       </c>
       <c r="M16">
-        <v>0.9937594042158061</v>
+        <v>0.0030969418</v>
       </c>
       <c r="N16">
-        <v>0.9681699309966444</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="O16">
-        <v>1.031086436960121</v>
+        <v>30.381976</v>
       </c>
       <c r="P16">
-        <v>1.00624815325562</v>
+        <v>15.1925364709</v>
       </c>
       <c r="Q16">
-        <v>1.022119393741151</v>
+        <v>15.1916828234</v>
       </c>
       <c r="R16">
-        <v>0.9935554125026281</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="S16">
-        <v>1.008549552344474</v>
+        <v>10.12882086286667</v>
       </c>
       <c r="T16">
-        <v>0.9935554125026279</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="U16">
-        <v>0.9984546470075164</v>
+        <v>7.595917604425</v>
       </c>
       <c r="V16">
-        <v>0.9923977038053421</v>
+        <v>6.07617564936</v>
       </c>
       <c r="W16">
-        <v>0.9994655646791485</v>
+        <v>3.82527931614875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.045403599044828</v>
+        <v>0.0071724905</v>
       </c>
       <c r="D17">
-        <v>1.053402545331115</v>
+        <v>0.002333026</v>
       </c>
       <c r="E17">
-        <v>0.976161171344973</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="F17">
-        <v>1.045403599044828</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="G17">
-        <v>0.9684489395606518</v>
+        <v>0.68907673</v>
       </c>
       <c r="H17">
-        <v>1.014345576163356</v>
+        <v>0.0026898821</v>
       </c>
       <c r="I17">
-        <v>1.045403599044824</v>
+        <v>0.11015343</v>
       </c>
       <c r="J17">
-        <v>1.053402545331115</v>
+        <v>0.37336813</v>
       </c>
       <c r="K17">
-        <v>1.000844621738089</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="L17">
-        <v>0.9765831776914727</v>
+        <v>0.00074057934</v>
       </c>
       <c r="M17">
-        <v>1.009708794559543</v>
+        <v>0.11015343</v>
       </c>
       <c r="N17">
-        <v>1.045403599044828</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="O17">
-        <v>0.976161171344973</v>
+        <v>0.00074057934</v>
       </c>
       <c r="P17">
-        <v>1.014781858338044</v>
+        <v>0.05544700467</v>
       </c>
       <c r="Q17">
-        <v>0.9723050554528124</v>
+        <v>0.00395653492</v>
       </c>
       <c r="R17">
-        <v>1.024989105240305</v>
+        <v>0.03659594921333333</v>
       </c>
       <c r="S17">
-        <v>0.9993375520789133</v>
+        <v>0.03935549994666667</v>
       </c>
       <c r="T17">
-        <v>1.024989105240305</v>
+        <v>0.03659594921333333</v>
       </c>
       <c r="U17">
-        <v>1.010854063820392</v>
+        <v>0.029240084535</v>
       </c>
       <c r="V17">
-        <v>1.017763970865279</v>
+        <v>0.023170835288</v>
       </c>
       <c r="W17">
-        <v>1.005612303179253</v>
+        <v>0.14805351328</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000878197936837</v>
+        <v>1.77376410520137</v>
       </c>
       <c r="D18">
-        <v>1.236332324159667</v>
+        <v>1.773359426010685</v>
       </c>
       <c r="E18">
-        <v>1.030282999110335</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="F18">
-        <v>1.000878197936837</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="G18">
-        <v>1.07255242752061</v>
+        <v>1.775766537615341</v>
       </c>
       <c r="H18">
-        <v>0.9998569202896528</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="I18">
-        <v>1.000878197936824</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="J18">
-        <v>1.236332324159667</v>
+        <v>0.001033861539123288</v>
       </c>
       <c r="K18">
-        <v>0.9875603361599358</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="L18">
-        <v>1.078418074592538</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="M18">
-        <v>1.01770598204543</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="N18">
-        <v>1.000878197936837</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="O18">
-        <v>1.030282999110335</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="P18">
-        <v>1.133307661635001</v>
+        <v>3.076931602108218</v>
       </c>
       <c r="Q18">
-        <v>1.051417713315473</v>
+        <v>1.774175254815753</v>
       </c>
       <c r="R18">
-        <v>1.089164507068946</v>
+        <v>3.824484466689589</v>
       </c>
       <c r="S18">
-        <v>1.113055916930204</v>
+        <v>2.642542436472602</v>
       </c>
       <c r="T18">
-        <v>1.089164507068946</v>
+        <v>3.824484466689589</v>
       </c>
       <c r="U18">
-        <v>1.085011487181862</v>
+        <v>3.311804376317534</v>
       </c>
       <c r="V18">
-        <v>1.068184829332857</v>
+        <v>3.713361540224493</v>
       </c>
       <c r="W18">
-        <v>1.052948407726876</v>
+        <v>2.321579826421739</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.680165514670602</v>
+        <v>0.002274351473684211</v>
       </c>
       <c r="D19">
-        <v>0.7134201058205806</v>
+        <v>0.03678103623684208</v>
       </c>
       <c r="E19">
-        <v>1.096734407992369</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="F19">
-        <v>0.680165514670602</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="G19">
-        <v>1.23409205624459</v>
+        <v>0.2256577022578947</v>
       </c>
       <c r="H19">
-        <v>1.249071191726129</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="I19">
-        <v>0.6801655146705999</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="J19">
-        <v>0.7134201058205806</v>
+        <v>3.405806758792632</v>
       </c>
       <c r="K19">
-        <v>1.008162520675988</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="L19">
-        <v>1.098285379294338</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="M19">
-        <v>1.093159468411679</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="N19">
-        <v>0.680165514670602</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="O19">
-        <v>1.096734407992369</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="P19">
-        <v>0.9050772569064749</v>
+        <v>5.910440556295524</v>
       </c>
       <c r="Q19">
-        <v>1.16541323211848</v>
+        <v>2.504132522274472</v>
       </c>
       <c r="R19">
-        <v>0.8301066761611841</v>
+        <v>3.939841324191752</v>
       </c>
       <c r="S19">
-        <v>1.014748856685846</v>
+        <v>3.941051821354911</v>
       </c>
       <c r="T19">
-        <v>0.8301066761611841</v>
+        <v>3.939841324191752</v>
       </c>
       <c r="U19">
-        <v>0.9311030211820355</v>
+        <v>2.955449581012235</v>
       </c>
       <c r="V19">
-        <v>0.8809155198797487</v>
+        <v>2.36408823680663</v>
       </c>
       <c r="W19">
-        <v>1.021636330604534</v>
+        <v>1.936374676294934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.70381911088421</v>
+      </c>
+      <c r="D20">
+        <v>1.709357159325789</v>
+      </c>
+      <c r="E20">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="F20">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="G20">
+        <v>1.706189699675263</v>
+      </c>
+      <c r="H20">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="I20">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="J20">
+        <v>0.001054795799421053</v>
+      </c>
+      <c r="K20">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="L20">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="M20">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="N20">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="O20">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="P20">
+        <v>3.755033406139998</v>
+      </c>
+      <c r="Q20">
+        <v>2.103961242713683</v>
+      </c>
+      <c r="R20">
+        <v>4.206560586652631</v>
+      </c>
+      <c r="S20">
+        <v>3.071295307721402</v>
+      </c>
+      <c r="T20">
+        <v>4.20656058665263</v>
+      </c>
+      <c r="U20">
+        <v>3.580875217710525</v>
+      </c>
+      <c r="V20">
+        <v>3.886623163703999</v>
+      </c>
+      <c r="W20">
+        <v>2.430646337244138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8251129521803349</v>
+      </c>
+      <c r="D21">
+        <v>0.0002127605872356338</v>
+      </c>
+      <c r="E21">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="G21">
+        <v>4.374414363102184</v>
+      </c>
+      <c r="H21">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="I21">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="J21">
+        <v>1.128222240509831</v>
+      </c>
+      <c r="K21">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="L21">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="M21">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="N21">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="O21">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="P21">
+        <v>3.835362462105464</v>
+      </c>
+      <c r="Q21">
+        <v>0.4125834250995077</v>
+      </c>
+      <c r="R21">
+        <v>2.556867518810542</v>
+      </c>
+      <c r="S21">
+        <v>2.831945958797088</v>
+      </c>
+      <c r="T21">
+        <v>2.556867518810542</v>
+      </c>
+      <c r="U21">
+        <v>2.12392887715299</v>
+      </c>
+      <c r="V21">
+        <v>1.699118628166531</v>
+      </c>
+      <c r="W21">
+        <v>1.750069915824836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.339395960455954</v>
+      </c>
+      <c r="D22">
+        <v>0.05906477380171074</v>
+      </c>
+      <c r="E22">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="G22">
+        <v>1.790694063761198</v>
+      </c>
+      <c r="H22">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="I22">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J22">
+        <v>1.774618831946871</v>
+      </c>
+      <c r="K22">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="L22">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="M22">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="N22">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="O22">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="P22">
+        <v>0.1280100658215965</v>
+      </c>
+      <c r="Q22">
+        <v>0.7914341186983134</v>
+      </c>
+      <c r="R22">
+        <v>0.0852565849213061</v>
+      </c>
+      <c r="S22">
+        <v>0.5318053640330489</v>
+      </c>
+      <c r="T22">
+        <v>0.0852565849213061</v>
+      </c>
+      <c r="U22">
+        <v>0.398791428804968</v>
+      </c>
+      <c r="V22">
+        <v>0.3189830676681195</v>
+      </c>
+      <c r="W22">
+        <v>0.8358218178814529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.26648903531007</v>
+      </c>
+      <c r="D23">
+        <v>0.4533893374864226</v>
+      </c>
+      <c r="E23">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="F23">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="G23">
+        <v>1.611159066105061</v>
+      </c>
+      <c r="H23">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="I23">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J23">
+        <v>0.9634014086910617</v>
+      </c>
+      <c r="K23">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="L23">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="M23">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="N23">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="O23">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="P23">
+        <v>0.02277045113670992</v>
+      </c>
+      <c r="Q23">
+        <v>0.6548630347819363</v>
+      </c>
+      <c r="R23">
+        <v>0.03015808959541666</v>
+      </c>
+      <c r="S23">
+        <v>0.4373433125278299</v>
+      </c>
+      <c r="T23">
+        <v>0.03015808959541666</v>
+      </c>
+      <c r="U23">
+        <v>0.3392408260240799</v>
+      </c>
+      <c r="V23">
+        <v>0.28037933412183</v>
+      </c>
+      <c r="W23">
+        <v>0.7328691864906796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.1101633907951074</v>
+      </c>
+      <c r="D24">
+        <v>1.435229108508237</v>
+      </c>
+      <c r="E24">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="F24">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="G24">
+        <v>0.5663888784986911</v>
+      </c>
+      <c r="H24">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I24">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="J24">
+        <v>1.202456742315591</v>
+      </c>
+      <c r="K24">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="L24">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="M24">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="N24">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="O24">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="P24">
+        <v>2.277683400881256</v>
+      </c>
+      <c r="Q24">
+        <v>1.152903105237928</v>
+      </c>
+      <c r="R24">
+        <v>2.51499044972749</v>
+      </c>
+      <c r="S24">
+        <v>1.55517673085254</v>
+      </c>
+      <c r="T24">
+        <v>2.51499044972749</v>
+      </c>
+      <c r="U24">
+        <v>1.913783684994395</v>
+      </c>
+      <c r="V24">
+        <v>2.128947857479507</v>
+      </c>
+      <c r="W24">
+        <v>1.365062931418435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.002965395634932878</v>
+      </c>
+      <c r="D25">
+        <v>0.513593882900742</v>
+      </c>
+      <c r="E25">
+        <v>1.089884389547288</v>
+      </c>
+      <c r="F25">
+        <v>1.089884389547288</v>
+      </c>
+      <c r="G25">
+        <v>-9.337905215507311E-05</v>
+      </c>
+      <c r="H25">
+        <v>1.309209376322907</v>
+      </c>
+      <c r="I25">
+        <v>-3.824127051843169E-05</v>
+      </c>
+      <c r="J25">
+        <v>-0.0003721339944937158</v>
+      </c>
+      <c r="K25">
+        <v>1.089884389547288</v>
+      </c>
+      <c r="L25">
+        <v>0.0009851134221014234</v>
+      </c>
+      <c r="M25">
+        <v>-3.824127051843169E-05</v>
+      </c>
+      <c r="N25">
+        <v>1.089884389547288</v>
+      </c>
+      <c r="O25">
+        <v>0.0009851134221014234</v>
+      </c>
+      <c r="P25">
+        <v>0.0004734360757914958</v>
+      </c>
+      <c r="Q25">
+        <v>0.00197525452851715</v>
+      </c>
+      <c r="R25">
+        <v>0.3636104205662902</v>
+      </c>
+      <c r="S25">
+        <v>0.001304089262171956</v>
+      </c>
+      <c r="T25">
+        <v>0.3636104205662902</v>
+      </c>
+      <c r="U25">
+        <v>0.2734491643334509</v>
+      </c>
+      <c r="V25">
+        <v>0.4367362093762182</v>
+      </c>
+      <c r="W25">
+        <v>0.3645168004388504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.952141520944304</v>
+      </c>
+      <c r="D26">
+        <v>2.175071935320451</v>
+      </c>
+      <c r="E26">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="F26">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="G26">
+        <v>0.03415047585304375</v>
+      </c>
+      <c r="H26">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="I26">
+        <v>-0.0002872047814168298</v>
+      </c>
+      <c r="J26">
+        <v>0.05498940139095661</v>
+      </c>
+      <c r="K26">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="L26">
+        <v>0.6404703130824716</v>
+      </c>
+      <c r="M26">
+        <v>-0.0002872047814168298</v>
+      </c>
+      <c r="N26">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="O26">
+        <v>0.6404703130824716</v>
+      </c>
+      <c r="P26">
+        <v>0.3200915541505274</v>
+      </c>
+      <c r="Q26">
+        <v>1.296305917013388</v>
+      </c>
+      <c r="R26">
+        <v>0.2140754256084698</v>
+      </c>
+      <c r="S26">
+        <v>0.864108209748453</v>
+      </c>
+      <c r="T26">
+        <v>0.2140754256084698</v>
+      </c>
+      <c r="U26">
+        <v>0.6485919494424284</v>
+      </c>
+      <c r="V26">
+        <v>0.5192821932588136</v>
+      </c>
+      <c r="W26">
+        <v>0.7635297353139361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.458046104848207</v>
+      </c>
+      <c r="D27">
+        <v>3.218067163458239</v>
+      </c>
+      <c r="E27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="F27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="G27">
+        <v>1.20849302825377</v>
+      </c>
+      <c r="H27">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="I27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="J27">
+        <v>1.69964196522591</v>
+      </c>
+      <c r="K27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="L27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="M27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="N27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="O27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="P27">
+        <v>0.9506977997750201</v>
+      </c>
+      <c r="Q27">
+        <v>2.147748035713477</v>
+      </c>
+      <c r="R27">
+        <v>1.56978372206549</v>
+      </c>
+      <c r="S27">
+        <v>1.453147234799416</v>
+      </c>
+      <c r="T27">
+        <v>1.56978372206549</v>
+      </c>
+      <c r="U27">
+        <v>1.791849317761169</v>
+      </c>
+      <c r="V27">
+        <v>1.995070567538221</v>
+      </c>
+      <c r="W27">
+        <v>1.880388014744857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3.300086956170925</v>
+      </c>
+      <c r="D28">
+        <v>1.653196592627267</v>
+      </c>
+      <c r="E28">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="F28">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="G28">
+        <v>1.421008259166591</v>
+      </c>
+      <c r="H28">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="I28">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="J28">
+        <v>0.04382683322406025</v>
+      </c>
+      <c r="K28">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="L28">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="M28">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="N28">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="O28">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="P28">
+        <v>0.9942990771269341</v>
+      </c>
+      <c r="Q28">
+        <v>2.115390468868598</v>
+      </c>
+      <c r="R28">
+        <v>1.529712962687459</v>
+      </c>
+      <c r="S28">
+        <v>1.762895036808265</v>
+      </c>
+      <c r="T28">
+        <v>1.529712962687459</v>
+      </c>
+      <c r="U28">
+        <v>1.972306461058325</v>
+      </c>
+      <c r="V28">
+        <v>2.097953315608362</v>
+      </c>
+      <c r="W28">
+        <v>1.508564186616099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.872325516470453</v>
+      </c>
+      <c r="D29">
+        <v>1.44561109241561</v>
+      </c>
+      <c r="E29">
+        <v>5.721186622961275</v>
+      </c>
+      <c r="F29">
+        <v>5.721186622961275</v>
+      </c>
+      <c r="G29">
+        <v>0.9782530075531446</v>
+      </c>
+      <c r="H29">
+        <v>0.05634646698588139</v>
+      </c>
+      <c r="I29">
+        <v>2.375468013095546</v>
+      </c>
+      <c r="J29">
+        <v>0.002588871330876458</v>
+      </c>
+      <c r="K29">
+        <v>5.721186622961275</v>
+      </c>
+      <c r="L29">
+        <v>1.791454830739619</v>
+      </c>
+      <c r="M29">
+        <v>2.375468013095546</v>
+      </c>
+      <c r="N29">
+        <v>5.721186622961275</v>
+      </c>
+      <c r="O29">
+        <v>1.791454830739619</v>
+      </c>
+      <c r="P29">
+        <v>2.083461421917582</v>
+      </c>
+      <c r="Q29">
+        <v>2.331890173605036</v>
+      </c>
+      <c r="R29">
+        <v>3.296036488932147</v>
+      </c>
+      <c r="S29">
+        <v>2.346416120101873</v>
+      </c>
+      <c r="T29">
+        <v>3.296036488932147</v>
+      </c>
+      <c r="U29">
+        <v>3.190108745816723</v>
+      </c>
+      <c r="V29">
+        <v>3.696324321245633</v>
+      </c>
+      <c r="W29">
+        <v>1.905404302694051</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8531509920525721</v>
+        <v>0.8764064587388941</v>
       </c>
       <c r="D4">
-        <v>1.115569649325903</v>
+        <v>1.115620384360406</v>
       </c>
       <c r="E4">
-        <v>0.8633979588803194</v>
+        <v>0.9019600965337778</v>
       </c>
       <c r="F4">
-        <v>0.8633979588803194</v>
+        <v>0.9019600965337778</v>
       </c>
       <c r="G4">
-        <v>0.8396433868791334</v>
+        <v>0.8156850097282374</v>
       </c>
       <c r="H4">
-        <v>0.8723251767780055</v>
+        <v>0.8960776325880143</v>
       </c>
       <c r="I4">
-        <v>0.9468238170950675</v>
+        <v>0.7330150442468045</v>
       </c>
       <c r="J4">
-        <v>1.016451494365363</v>
+        <v>0.9558039632632692</v>
       </c>
       <c r="K4">
-        <v>0.8633979588803167</v>
+        <v>0.9019600965337747</v>
       </c>
       <c r="L4">
-        <v>1.943934907918076</v>
+        <v>2.471025170315269</v>
       </c>
       <c r="M4">
-        <v>0.9468238170950675</v>
+        <v>0.7330150442468045</v>
       </c>
       <c r="N4">
-        <v>0.8633979588803194</v>
+        <v>0.9019600965337778</v>
       </c>
       <c r="O4">
-        <v>1.943934907918076</v>
+        <v>2.471025170315269</v>
       </c>
       <c r="P4">
-        <v>1.445379362506572</v>
+        <v>1.602020107281037</v>
       </c>
       <c r="Q4">
-        <v>1.398542949985324</v>
+        <v>1.673715814527082</v>
       </c>
       <c r="R4">
-        <v>1.251385561297821</v>
+        <v>1.368666770365284</v>
       </c>
       <c r="S4">
-        <v>1.247969905688572</v>
+        <v>1.360148891100323</v>
       </c>
       <c r="T4">
-        <v>1.251385561297821</v>
+        <v>1.368666770365284</v>
       </c>
       <c r="U4">
-        <v>1.151826918986509</v>
+        <v>1.245601692458687</v>
       </c>
       <c r="V4">
-        <v>1.094141126965271</v>
+        <v>1.176873373273705</v>
       </c>
       <c r="W4">
-        <v>1.056412172911805</v>
+        <v>1.095699219971834</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8824252282448501</v>
+        <v>1.885810824175682</v>
       </c>
       <c r="D5">
-        <v>1.110554507403291</v>
+        <v>1.80426359861646</v>
       </c>
       <c r="E5">
-        <v>1.026900162382976</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="F5">
-        <v>1.026900162382976</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="G5">
-        <v>0.8556736736000023</v>
+        <v>1.888167297409928</v>
       </c>
       <c r="H5">
-        <v>0.8995547410717861</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="I5">
-        <v>0.9241541760784203</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="J5">
-        <v>0.8944887454379963</v>
+        <v>0.0008906558968692118</v>
       </c>
       <c r="K5">
-        <v>1.026900162382973</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="L5">
-        <v>3.128132407286034</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="M5">
-        <v>0.9241541760784203</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="N5">
-        <v>1.026900162382976</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="O5">
-        <v>3.128132407286034</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="P5">
-        <v>2.026143291682227</v>
+        <v>2.380527927200393</v>
       </c>
       <c r="Q5">
-        <v>2.005278817765442</v>
+        <v>1.307358457759652</v>
       </c>
       <c r="R5">
-        <v>1.693062248582477</v>
+        <v>3.468186715886511</v>
       </c>
       <c r="S5">
-        <v>1.644903937203101</v>
+        <v>2.215622226192156</v>
       </c>
       <c r="T5">
-        <v>1.693062248582477</v>
+        <v>3.468186715886511</v>
       </c>
       <c r="U5">
-        <v>1.49040299349807</v>
+        <v>3.072592742958804</v>
       </c>
       <c r="V5">
-        <v>1.397702427275051</v>
+        <v>3.586775053018792</v>
       </c>
       <c r="W5">
-        <v>1.215235455188169</v>
+        <v>2.233782088379716</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4390317027600822</v>
+        <v>0.8531509920525721</v>
       </c>
       <c r="D6">
-        <v>0.6623398695147692</v>
+        <v>1.115569649325903</v>
       </c>
       <c r="E6">
-        <v>0.4556216075653894</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="F6">
-        <v>0.4556216075653894</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="G6">
-        <v>0.4184016303605279</v>
+        <v>0.8396433868791334</v>
       </c>
       <c r="H6">
-        <v>0.4396228909860921</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="I6">
-        <v>0.4051617344198129</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="J6">
-        <v>0.4788414948999383</v>
+        <v>1.016451494365363</v>
       </c>
       <c r="K6">
-        <v>0.455621607565388</v>
+        <v>0.8633979588803167</v>
       </c>
       <c r="L6">
-        <v>16.38501025765853</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="M6">
-        <v>0.4051617344198129</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="N6">
-        <v>0.4556216075653894</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="O6">
-        <v>16.38501025765853</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="P6">
-        <v>8.395085996039171</v>
+        <v>1.445379362506572</v>
       </c>
       <c r="Q6">
-        <v>8.412020980209306</v>
+        <v>1.398542949985324</v>
       </c>
       <c r="R6">
-        <v>5.748597866547911</v>
+        <v>1.251385561297821</v>
       </c>
       <c r="S6">
-        <v>5.743067898279475</v>
+        <v>1.247969905688572</v>
       </c>
       <c r="T6">
-        <v>5.74859786654791</v>
+        <v>1.251385561297821</v>
       </c>
       <c r="U6">
-        <v>4.421206325600953</v>
+        <v>1.151826918986509</v>
       </c>
       <c r="V6">
-        <v>3.628089381993841</v>
+        <v>1.094141126965271</v>
       </c>
       <c r="W6">
-        <v>2.460503898520642</v>
+        <v>1.056412172911805</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.032852102538762</v>
+        <v>0.8824252282448501</v>
       </c>
       <c r="D7">
-        <v>1.050034734941735</v>
+        <v>1.110554507403291</v>
       </c>
       <c r="E7">
-        <v>1.234621176820528</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="F7">
-        <v>1.234621176820528</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="G7">
-        <v>1.040765592933075</v>
+        <v>0.8556736736000023</v>
       </c>
       <c r="H7">
-        <v>1.031564002918908</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I7">
-        <v>1.107347411868583</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J7">
-        <v>0.9578356195411628</v>
+        <v>0.8944887454379963</v>
       </c>
       <c r="K7">
-        <v>1.234621176820523</v>
+        <v>1.026900162382973</v>
       </c>
       <c r="L7">
-        <v>1.047809534234718</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="M7">
-        <v>1.107347411868583</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="N7">
-        <v>1.234621176820528</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="O7">
-        <v>1.047809534234718</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="P7">
-        <v>1.07757847305165</v>
+        <v>2.026143291682227</v>
       </c>
       <c r="Q7">
-        <v>1.04033081838674</v>
+        <v>2.005278817765442</v>
       </c>
       <c r="R7">
-        <v>1.129926040974609</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="S7">
-        <v>1.062669682880688</v>
+        <v>1.644903937203101</v>
       </c>
       <c r="T7">
-        <v>1.129926040974609</v>
+        <v>1.693062248582477</v>
       </c>
       <c r="U7">
-        <v>1.105657556365648</v>
+        <v>1.49040299349807</v>
       </c>
       <c r="V7">
-        <v>1.131450280456624</v>
+        <v>1.397702427275051</v>
       </c>
       <c r="W7">
-        <v>1.062853771974684</v>
+        <v>1.215235455188169</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9684489395606513</v>
+        <v>0.4390317027600822</v>
       </c>
       <c r="D8">
-        <v>1.014345576163358</v>
+        <v>0.6623398695147692</v>
       </c>
       <c r="E8">
-        <v>1.04540359904483</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="F8">
-        <v>1.04540359904483</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="G8">
-        <v>1.009708794559543</v>
+        <v>0.4184016303605279</v>
       </c>
       <c r="H8">
-        <v>0.9765831776914726</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="I8">
-        <v>1.053402545331116</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="J8">
-        <v>1.00084462173809</v>
+        <v>0.4788414948999383</v>
       </c>
       <c r="K8">
-        <v>1.045403599044825</v>
+        <v>0.455621607565388</v>
       </c>
       <c r="L8">
-        <v>0.9761611713449719</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="M8">
-        <v>1.053402545331116</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="N8">
-        <v>1.04540359904483</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="O8">
-        <v>0.9761611713449719</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="P8">
-        <v>1.014781858338044</v>
+        <v>8.395085996039171</v>
       </c>
       <c r="Q8">
-        <v>0.9723050554528117</v>
+        <v>8.412020980209306</v>
       </c>
       <c r="R8">
-        <v>1.024989105240306</v>
+        <v>5.748597866547911</v>
       </c>
       <c r="S8">
-        <v>0.9993375520789129</v>
+        <v>5.743067898279475</v>
       </c>
       <c r="T8">
-        <v>1.024989105240306</v>
+        <v>5.74859786654791</v>
       </c>
       <c r="U8">
-        <v>1.010854063820392</v>
+        <v>4.421206325600953</v>
       </c>
       <c r="V8">
-        <v>1.017763970865279</v>
+        <v>3.628089381993841</v>
       </c>
       <c r="W8">
-        <v>1.005612303179254</v>
+        <v>2.460503898520642</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.084258076248592</v>
+        <v>1.032852102538762</v>
       </c>
       <c r="D9">
-        <v>1.059803651426809</v>
+        <v>1.050034734941735</v>
       </c>
       <c r="E9">
-        <v>1.427852674521916</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="F9">
-        <v>1.427852674521916</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="G9">
-        <v>1.094679106054869</v>
+        <v>1.040765592933075</v>
       </c>
       <c r="H9">
-        <v>1.060006336512867</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I9">
-        <v>1.204465782221185</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J9">
-        <v>0.9187278926207247</v>
+        <v>0.9578356195411628</v>
       </c>
       <c r="K9">
-        <v>1.427852674521912</v>
+        <v>1.234621176820523</v>
       </c>
       <c r="L9">
-        <v>1.103969556861851</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="M9">
-        <v>1.204465782221185</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="N9">
-        <v>1.427852674521916</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="O9">
-        <v>1.103969556861851</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="P9">
-        <v>1.154217669541518</v>
+        <v>1.07757847305165</v>
       </c>
       <c r="Q9">
-        <v>1.094113816555221</v>
+        <v>1.04033081838674</v>
       </c>
       <c r="R9">
-        <v>1.245429337868318</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="S9">
-        <v>1.130897805110543</v>
+        <v>1.062669682880688</v>
       </c>
       <c r="T9">
-        <v>1.245429337868318</v>
+        <v>1.129926040974609</v>
       </c>
       <c r="U9">
-        <v>1.205136522463386</v>
+        <v>1.105657556365648</v>
       </c>
       <c r="V9">
-        <v>1.249679752875092</v>
+        <v>1.131450280456624</v>
       </c>
       <c r="W9">
-        <v>1.119220384558602</v>
+        <v>1.062853771974684</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3522752019196284</v>
+        <v>0.9684489395606513</v>
       </c>
       <c r="D10">
-        <v>0.6934856875091883</v>
+        <v>1.014345576163358</v>
       </c>
       <c r="E10">
-        <v>0.4150202898035568</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="F10">
-        <v>0.4150202898035568</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="G10">
-        <v>0.4162136725278139</v>
+        <v>1.009708794559543</v>
       </c>
       <c r="H10">
-        <v>0.4067664264598636</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="I10">
-        <v>0.4540449105038262</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="J10">
-        <v>0.4632029117596649</v>
+        <v>1.00084462173809</v>
       </c>
       <c r="K10">
-        <v>0.4150202898035568</v>
+        <v>1.045403599044825</v>
       </c>
       <c r="L10">
-        <v>16.72606622617658</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="M10">
-        <v>0.4540449105038262</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="N10">
-        <v>0.4150202898035568</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="O10">
-        <v>16.72606622617658</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="P10">
-        <v>8.590055568340205</v>
+        <v>1.014781858338044</v>
       </c>
       <c r="Q10">
-        <v>8.539170714048106</v>
+        <v>0.9723050554528117</v>
       </c>
       <c r="R10">
-        <v>5.865043808827989</v>
+        <v>1.024989105240306</v>
       </c>
       <c r="S10">
-        <v>5.844128779533346</v>
+        <v>0.9993375520789129</v>
       </c>
       <c r="T10">
-        <v>5.865043808827989</v>
+        <v>1.024989105240306</v>
       </c>
       <c r="U10">
-        <v>4.486851657100899</v>
+        <v>1.010854063820392</v>
       </c>
       <c r="V10">
-        <v>3.672485383641431</v>
+        <v>1.017763970865279</v>
       </c>
       <c r="W10">
-        <v>2.490884415832516</v>
+        <v>1.005612303179254</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8099498835600872</v>
+        <v>1.084258076248592</v>
       </c>
       <c r="D11">
-        <v>1.448407174316428</v>
+        <v>1.059803651426809</v>
       </c>
       <c r="E11">
-        <v>1.242616079988111</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="F11">
-        <v>1.242616079988111</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="G11">
-        <v>0.4280875206920597</v>
+        <v>1.094679106054869</v>
       </c>
       <c r="H11">
-        <v>1.078892258265857</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I11">
-        <v>0.3071294600657896</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J11">
-        <v>0.7439920320732716</v>
+        <v>0.9187278926207247</v>
       </c>
       <c r="K11">
-        <v>1.242616079988107</v>
+        <v>1.427852674521912</v>
       </c>
       <c r="L11">
-        <v>2.025552846997402</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="M11">
-        <v>0.3071294600657896</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="N11">
-        <v>1.242616079988111</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="O11">
-        <v>2.025552846997402</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="P11">
-        <v>1.166341153531596</v>
+        <v>1.154217669541518</v>
       </c>
       <c r="Q11">
-        <v>1.417751365278745</v>
+        <v>1.094113816555221</v>
       </c>
       <c r="R11">
-        <v>1.191766129017101</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="S11">
-        <v>1.047544063541093</v>
+        <v>1.130897805110543</v>
       </c>
       <c r="T11">
-        <v>1.191766129017101</v>
+        <v>1.245429337868318</v>
       </c>
       <c r="U11">
-        <v>1.096312067652847</v>
+        <v>1.205136522463386</v>
       </c>
       <c r="V11">
-        <v>1.1255728701199</v>
+        <v>1.249679752875092</v>
       </c>
       <c r="W11">
-        <v>1.010578406994876</v>
+        <v>1.119220384558602</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7105096492133276</v>
+        <v>0.3522752019196284</v>
       </c>
       <c r="D12">
-        <v>1.107226096746606</v>
+        <v>0.6934856875091883</v>
       </c>
       <c r="E12">
-        <v>0.8605387539555995</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="F12">
-        <v>0.8605387539555995</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="G12">
-        <v>0.8240843149651044</v>
+        <v>0.4162136725278139</v>
       </c>
       <c r="H12">
-        <v>0.793602647968344</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="I12">
-        <v>0.8235776571694822</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="J12">
-        <v>0.8527474114158495</v>
+        <v>0.4632029117596649</v>
       </c>
       <c r="K12">
-        <v>0.8605387539555995</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="L12">
-        <v>4.184005176183452</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="M12">
-        <v>0.8235776571694822</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="N12">
-        <v>0.8605387539555995</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="O12">
-        <v>4.184005176183452</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="P12">
-        <v>2.503791416676467</v>
+        <v>8.590055568340205</v>
       </c>
       <c r="Q12">
-        <v>2.44725741269839</v>
+        <v>8.539170714048106</v>
       </c>
       <c r="R12">
-        <v>1.956040529102845</v>
+        <v>5.865043808827989</v>
       </c>
       <c r="S12">
-        <v>1.906030827522087</v>
+        <v>5.844128779533346</v>
       </c>
       <c r="T12">
-        <v>1.956040529102845</v>
+        <v>5.865043808827989</v>
       </c>
       <c r="U12">
-        <v>1.644657809130465</v>
+        <v>4.486851657100899</v>
       </c>
       <c r="V12">
-        <v>1.487833998095492</v>
+        <v>3.672485383641431</v>
       </c>
       <c r="W12">
-        <v>1.269536463452221</v>
+        <v>2.490884415832516</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.787619292183129</v>
+        <v>0.8099498835600872</v>
       </c>
       <c r="D13">
-        <v>1.000977970448148</v>
+        <v>1.448407174316428</v>
       </c>
       <c r="E13">
-        <v>1.017281727381781</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="F13">
-        <v>1.017281727381781</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="G13">
-        <v>1.122007963506848</v>
+        <v>0.4280875206920597</v>
       </c>
       <c r="H13">
-        <v>0.9473410237665644</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="I13">
-        <v>1.356421852716105</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="J13">
-        <v>0.9893647556907305</v>
+        <v>0.7439920320732716</v>
       </c>
       <c r="K13">
-        <v>1.017281727381781</v>
+        <v>1.242616079988107</v>
       </c>
       <c r="L13">
-        <v>1.142096761183624</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="M13">
-        <v>1.356421852716105</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="N13">
-        <v>1.017281727381781</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="O13">
-        <v>1.142096761183624</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="P13">
-        <v>1.249259306949865</v>
+        <v>1.166341153531596</v>
       </c>
       <c r="Q13">
-        <v>0.9648580266833766</v>
+        <v>1.417751365278745</v>
       </c>
       <c r="R13">
-        <v>1.171933447093837</v>
+        <v>1.191766129017101</v>
       </c>
       <c r="S13">
-        <v>1.095379302027619</v>
+        <v>1.047544063541093</v>
       </c>
       <c r="T13">
-        <v>1.171933447093837</v>
+        <v>1.191766129017101</v>
       </c>
       <c r="U13">
-        <v>1.07585490836616</v>
+        <v>1.096312067652847</v>
       </c>
       <c r="V13">
-        <v>1.064140272169284</v>
+        <v>1.1255728701199</v>
       </c>
       <c r="W13">
-        <v>1.045388918359616</v>
+        <v>1.010578406994876</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001389646800000002</v>
+        <v>0.7105096492133276</v>
       </c>
       <c r="D14">
-        <v>0.2240137299999997</v>
+        <v>1.107226096746606</v>
       </c>
       <c r="E14">
-        <v>-0.002792170900000001</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="F14">
-        <v>-0.002792170900000001</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="G14">
-        <v>-0.005045797299999992</v>
+        <v>0.8240843149651044</v>
       </c>
       <c r="H14">
-        <v>-0.0012295708</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="I14">
-        <v>0.003096941800000001</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="J14">
-        <v>0.0008257495699999993</v>
+        <v>0.8527474114158495</v>
       </c>
       <c r="K14">
-        <v>-0.002792170900000001</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="L14">
-        <v>30.38197599999996</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="M14">
-        <v>0.003096941800000001</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="N14">
-        <v>-0.002792170900000001</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="O14">
-        <v>30.38197599999996</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="P14">
-        <v>15.19253647089998</v>
+        <v>2.503791416676467</v>
       </c>
       <c r="Q14">
-        <v>15.19168282339998</v>
+        <v>2.44725741269839</v>
       </c>
       <c r="R14">
-        <v>10.12742692363332</v>
+        <v>1.956040529102845</v>
       </c>
       <c r="S14">
-        <v>10.12882086286665</v>
+        <v>1.906030827522087</v>
       </c>
       <c r="T14">
-        <v>10.12742692363332</v>
+        <v>1.956040529102845</v>
       </c>
       <c r="U14">
-        <v>7.59591760442499</v>
+        <v>1.644657809130465</v>
       </c>
       <c r="V14">
-        <v>6.076175649359992</v>
+        <v>1.487833998095492</v>
       </c>
       <c r="W14">
-        <v>3.825279316146245</v>
+        <v>1.269536463452221</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0026934539</v>
+        <v>0.787619292183129</v>
       </c>
       <c r="D15">
-        <v>0.0078785505</v>
+        <v>1.000977970448148</v>
       </c>
       <c r="E15">
-        <v>0.0062360681</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="F15">
-        <v>0.0062360681</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="G15">
-        <v>0.049551524</v>
+        <v>1.122007963506848</v>
       </c>
       <c r="H15">
-        <v>-0.0064332714</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="I15">
-        <v>60.759821</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="J15">
-        <v>0.003041090099999999</v>
+        <v>0.9893647556907305</v>
       </c>
       <c r="K15">
-        <v>0.0062360681</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="L15">
-        <v>0.0030969418</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="M15">
-        <v>60.759821</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="N15">
-        <v>0.0062360681</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="O15">
-        <v>0.0030969418</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="P15">
-        <v>30.3814589709</v>
+        <v>1.249259306949865</v>
       </c>
       <c r="Q15">
-        <v>0.00289519785</v>
+        <v>0.9648580266833766</v>
       </c>
       <c r="R15">
-        <v>20.25638466996667</v>
+        <v>1.171933447093837</v>
       </c>
       <c r="S15">
-        <v>20.25520379856667</v>
+        <v>1.095379302027619</v>
       </c>
       <c r="T15">
-        <v>20.25638466996667</v>
+        <v>1.171933447093837</v>
       </c>
       <c r="U15">
-        <v>15.19296186595</v>
+        <v>1.07585490836616</v>
       </c>
       <c r="V15">
-        <v>12.15561670638</v>
+        <v>1.064140272169284</v>
       </c>
       <c r="W15">
-        <v>7.603235669625</v>
+        <v>1.045388918359616</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0013896468</v>
+        <v>0.001389646800000002</v>
       </c>
       <c r="D16">
-        <v>0.22401373</v>
+        <v>0.2240137299999997</v>
       </c>
       <c r="E16">
-        <v>-0.0027921709</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="F16">
-        <v>-0.0027921709</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="G16">
-        <v>-0.0050457973</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="H16">
         <v>-0.0012295708</v>
       </c>
       <c r="I16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="J16">
-        <v>0.00082574959</v>
+        <v>0.0008257495699999993</v>
       </c>
       <c r="K16">
-        <v>-0.0027921709</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="L16">
-        <v>30.381976</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="M16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="N16">
-        <v>-0.0027921709</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="O16">
-        <v>30.381976</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="P16">
-        <v>15.1925364709</v>
+        <v>15.19253647089998</v>
       </c>
       <c r="Q16">
-        <v>15.1916828234</v>
+        <v>15.19168282339998</v>
       </c>
       <c r="R16">
-        <v>10.12742692363333</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="S16">
-        <v>10.12882086286667</v>
+        <v>10.12882086286665</v>
       </c>
       <c r="T16">
-        <v>10.12742692363333</v>
+        <v>10.12742692363332</v>
       </c>
       <c r="U16">
-        <v>7.595917604425</v>
+        <v>7.59591760442499</v>
       </c>
       <c r="V16">
-        <v>6.07617564936</v>
+        <v>6.076175649359992</v>
       </c>
       <c r="W16">
-        <v>3.82527931614875</v>
+        <v>3.825279316146245</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0071724905</v>
+        <v>0.0026934539</v>
       </c>
       <c r="D17">
-        <v>0.002333026</v>
+        <v>0.0078785505</v>
       </c>
       <c r="E17">
-        <v>-0.0011061617</v>
+        <v>0.0062360681</v>
       </c>
       <c r="F17">
-        <v>-0.0011061617</v>
+        <v>0.0062360681</v>
       </c>
       <c r="G17">
-        <v>0.68907673</v>
+        <v>0.049551524</v>
       </c>
       <c r="H17">
-        <v>0.0026898821</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="I17">
-        <v>0.11015343</v>
+        <v>60.759821</v>
       </c>
       <c r="J17">
-        <v>0.37336813</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="K17">
-        <v>-0.0011061617</v>
+        <v>0.0062360681</v>
       </c>
       <c r="L17">
-        <v>0.00074057934</v>
+        <v>0.0030969418</v>
       </c>
       <c r="M17">
-        <v>0.11015343</v>
+        <v>60.759821</v>
       </c>
       <c r="N17">
-        <v>-0.0011061617</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O17">
-        <v>0.00074057934</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P17">
-        <v>0.05544700467</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q17">
-        <v>0.00395653492</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R17">
-        <v>0.03659594921333333</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S17">
-        <v>0.03935549994666667</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T17">
-        <v>0.03659594921333333</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U17">
-        <v>0.029240084535</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V17">
-        <v>0.023170835288</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W17">
-        <v>0.14805351328</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.77376410520137</v>
+        <v>0.0013896468</v>
       </c>
       <c r="D18">
-        <v>1.773359426010685</v>
+        <v>0.22401373</v>
       </c>
       <c r="E18">
-        <v>5.319590195852331</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="F18">
-        <v>5.319590195852331</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="G18">
-        <v>1.775766537615341</v>
+        <v>-0.0050457973</v>
       </c>
       <c r="H18">
-        <v>1.77526128093863</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I18">
-        <v>4.379276799786302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J18">
-        <v>0.001033861539123288</v>
+        <v>0.00082574959</v>
       </c>
       <c r="K18">
-        <v>5.319590195852331</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="L18">
-        <v>1.774586404430135</v>
+        <v>30.381976</v>
       </c>
       <c r="M18">
-        <v>4.379276799786302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="N18">
-        <v>5.319590195852331</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="O18">
-        <v>1.774586404430135</v>
+        <v>30.381976</v>
       </c>
       <c r="P18">
-        <v>3.076931602108218</v>
+        <v>15.1925364709</v>
       </c>
       <c r="Q18">
-        <v>1.774175254815753</v>
+        <v>15.1916828234</v>
       </c>
       <c r="R18">
-        <v>3.824484466689589</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="S18">
-        <v>2.642542436472602</v>
+        <v>10.12882086286667</v>
       </c>
       <c r="T18">
-        <v>3.824484466689589</v>
+        <v>10.12742692363333</v>
       </c>
       <c r="U18">
-        <v>3.311804376317534</v>
+        <v>7.595917604425</v>
       </c>
       <c r="V18">
-        <v>3.713361540224493</v>
+        <v>6.07617564936</v>
       </c>
       <c r="W18">
-        <v>2.321579826421739</v>
+        <v>3.82527931614875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.002274351473684211</v>
+        <v>0.0071724905</v>
       </c>
       <c r="D19">
-        <v>0.03678103623684208</v>
+        <v>0.002333026</v>
       </c>
       <c r="E19">
-        <v>-0.001357140015789474</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="F19">
-        <v>-0.001357140015789474</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="G19">
-        <v>0.2256577022578947</v>
+        <v>0.68907673</v>
       </c>
       <c r="H19">
-        <v>0.000953589023157895</v>
+        <v>0.0026898821</v>
       </c>
       <c r="I19">
-        <v>6.814890419515787</v>
+        <v>0.11015343</v>
       </c>
       <c r="J19">
-        <v>3.405806758792632</v>
+        <v>0.37336813</v>
       </c>
       <c r="K19">
-        <v>-0.001357140015789474</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="L19">
-        <v>5.005990693075261</v>
+        <v>0.00074057934</v>
       </c>
       <c r="M19">
-        <v>6.814890419515787</v>
+        <v>0.11015343</v>
       </c>
       <c r="N19">
-        <v>-0.001357140015789474</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="O19">
-        <v>5.005990693075261</v>
+        <v>0.00074057934</v>
       </c>
       <c r="P19">
-        <v>5.910440556295524</v>
+        <v>0.05544700467</v>
       </c>
       <c r="Q19">
-        <v>2.504132522274472</v>
+        <v>0.00395653492</v>
       </c>
       <c r="R19">
-        <v>3.939841324191752</v>
+        <v>0.03659594921333333</v>
       </c>
       <c r="S19">
-        <v>3.941051821354911</v>
+        <v>0.03935549994666667</v>
       </c>
       <c r="T19">
-        <v>3.939841324191752</v>
+        <v>0.03659594921333333</v>
       </c>
       <c r="U19">
-        <v>2.955449581012235</v>
+        <v>0.029240084535</v>
       </c>
       <c r="V19">
-        <v>2.36408823680663</v>
+        <v>0.023170835288</v>
       </c>
       <c r="W19">
-        <v>1.936374676294934</v>
+        <v>0.14805351328</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.70381911088421</v>
+        <v>1.77376410520137</v>
       </c>
       <c r="D20">
-        <v>1.709357159325789</v>
+        <v>1.773359426010685</v>
       </c>
       <c r="E20">
-        <v>5.109614947677895</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="F20">
-        <v>5.109614947677895</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="G20">
-        <v>1.706189699675263</v>
+        <v>1.775766537615341</v>
       </c>
       <c r="H20">
-        <v>1.705068172310526</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="I20">
-        <v>5.005963437736842</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="J20">
-        <v>0.001054795799421053</v>
+        <v>0.001033861539123288</v>
       </c>
       <c r="K20">
-        <v>5.109614947677895</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="L20">
-        <v>2.504103374543155</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="M20">
-        <v>5.005963437736842</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="N20">
-        <v>5.109614947677895</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="O20">
-        <v>2.504103374543155</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="P20">
-        <v>3.755033406139998</v>
+        <v>3.076931602108218</v>
       </c>
       <c r="Q20">
-        <v>2.103961242713683</v>
+        <v>1.774175254815753</v>
       </c>
       <c r="R20">
-        <v>4.206560586652631</v>
+        <v>3.824484466689589</v>
       </c>
       <c r="S20">
-        <v>3.071295307721402</v>
+        <v>2.642542436472602</v>
       </c>
       <c r="T20">
-        <v>4.20656058665263</v>
+        <v>3.824484466689589</v>
       </c>
       <c r="U20">
-        <v>3.580875217710525</v>
+        <v>3.311804376317534</v>
       </c>
       <c r="V20">
-        <v>3.886623163703999</v>
+        <v>3.713361540224493</v>
       </c>
       <c r="W20">
-        <v>2.430646337244138</v>
+        <v>2.321579826421739</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8251129521803349</v>
+        <v>0.002274351473684211</v>
       </c>
       <c r="D21">
-        <v>0.0002127605872356338</v>
+        <v>0.03678103623684208</v>
       </c>
       <c r="E21">
-        <v>-0.0001223677793042235</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="F21">
-        <v>-0.0001223677793042235</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="G21">
-        <v>4.374414363102184</v>
+        <v>0.2256577022578947</v>
       </c>
       <c r="H21">
-        <v>0.001994453787480644</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="I21">
-        <v>7.670671026192249</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="J21">
-        <v>1.128222240509831</v>
+        <v>3.405806758792632</v>
       </c>
       <c r="K21">
-        <v>-0.0001223677793042235</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="L21">
-        <v>5.38980186805323E-05</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="M21">
-        <v>7.670671026192249</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="N21">
-        <v>-0.0001223677793042235</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="O21">
-        <v>5.38980186805323E-05</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="P21">
-        <v>3.835362462105464</v>
+        <v>5.910440556295524</v>
       </c>
       <c r="Q21">
-        <v>0.4125834250995077</v>
+        <v>2.504132522274472</v>
       </c>
       <c r="R21">
-        <v>2.556867518810542</v>
+        <v>3.939841324191752</v>
       </c>
       <c r="S21">
-        <v>2.831945958797088</v>
+        <v>3.941051821354911</v>
       </c>
       <c r="T21">
-        <v>2.556867518810542</v>
+        <v>3.939841324191752</v>
       </c>
       <c r="U21">
-        <v>2.12392887715299</v>
+        <v>2.955449581012235</v>
       </c>
       <c r="V21">
-        <v>1.699118628166531</v>
+        <v>2.36408823680663</v>
       </c>
       <c r="W21">
-        <v>1.750069915824836</v>
+        <v>1.936374676294934</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.339395960455954</v>
+        <v>1.70381911088421</v>
       </c>
       <c r="D22">
-        <v>0.05906477380171074</v>
+        <v>1.709357159325789</v>
       </c>
       <c r="E22">
-        <v>-0.0002503768792746595</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="F22">
-        <v>-0.0002503768792746595</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="G22">
-        <v>1.790694063761198</v>
+        <v>1.706189699675263</v>
       </c>
       <c r="H22">
-        <v>1.467031158321971</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="I22">
-        <v>0.01254785470251997</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="J22">
-        <v>1.774618831946871</v>
+        <v>0.001054795799421053</v>
       </c>
       <c r="K22">
-        <v>-0.0002503768792746595</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="L22">
-        <v>0.2434722769406729</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="M22">
-        <v>0.01254785470251997</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="N22">
-        <v>-0.0002503768792746595</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="O22">
-        <v>0.2434722769406729</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="P22">
-        <v>0.1280100658215965</v>
+        <v>3.755033406139998</v>
       </c>
       <c r="Q22">
-        <v>0.7914341186983134</v>
+        <v>2.103961242713683</v>
       </c>
       <c r="R22">
-        <v>0.0852565849213061</v>
+        <v>4.206560586652631</v>
       </c>
       <c r="S22">
-        <v>0.5318053640330489</v>
+        <v>3.071295307721402</v>
       </c>
       <c r="T22">
-        <v>0.0852565849213061</v>
+        <v>4.20656058665263</v>
       </c>
       <c r="U22">
-        <v>0.398791428804968</v>
+        <v>3.580875217710525</v>
       </c>
       <c r="V22">
-        <v>0.3189830676681195</v>
+        <v>3.886623163703999</v>
       </c>
       <c r="W22">
-        <v>0.8358218178814529</v>
+        <v>2.430646337244138</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.26648903531007</v>
+        <v>0.8251129521803349</v>
       </c>
       <c r="D23">
-        <v>0.4533893374864226</v>
+        <v>0.0002127605872356338</v>
       </c>
       <c r="E23">
-        <v>0.04493336651283013</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="F23">
-        <v>0.04493336651283013</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="G23">
-        <v>1.611159066105061</v>
+        <v>4.374414363102184</v>
       </c>
       <c r="H23">
-        <v>1.478040375546571</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="I23">
-        <v>0.002303868019616903</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="J23">
-        <v>0.9634014086910617</v>
+        <v>1.128222240509831</v>
       </c>
       <c r="K23">
-        <v>0.04493336651283013</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="L23">
-        <v>0.04323703425380294</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="M23">
-        <v>0.002303868019616903</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="N23">
-        <v>0.04493336651283013</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="O23">
-        <v>0.04323703425380294</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="P23">
-        <v>0.02277045113670992</v>
+        <v>3.835362462105464</v>
       </c>
       <c r="Q23">
-        <v>0.6548630347819363</v>
+        <v>0.4125834250995077</v>
       </c>
       <c r="R23">
-        <v>0.03015808959541666</v>
+        <v>2.556867518810542</v>
       </c>
       <c r="S23">
-        <v>0.4373433125278299</v>
+        <v>2.831945958797088</v>
       </c>
       <c r="T23">
-        <v>0.03015808959541666</v>
+        <v>2.556867518810542</v>
       </c>
       <c r="U23">
-        <v>0.3392408260240799</v>
+        <v>2.12392887715299</v>
       </c>
       <c r="V23">
-        <v>0.28037933412183</v>
+        <v>1.699118628166531</v>
       </c>
       <c r="W23">
-        <v>0.7328691864906796</v>
+        <v>1.750069915824836</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1101633907951074</v>
+        <v>1.339395960455954</v>
       </c>
       <c r="D24">
-        <v>1.435229108508237</v>
+        <v>0.05906477380171074</v>
       </c>
       <c r="E24">
-        <v>2.989604547419959</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="F24">
-        <v>2.989604547419959</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="G24">
-        <v>0.5663888784986911</v>
+        <v>1.790694063761198</v>
       </c>
       <c r="H24">
-        <v>0.06129398204738225</v>
+        <v>1.467031158321971</v>
       </c>
       <c r="I24">
-        <v>2.359723982081764</v>
+        <v>0.01254785470251997</v>
       </c>
       <c r="J24">
-        <v>1.202456742315591</v>
+        <v>1.774618831946871</v>
       </c>
       <c r="K24">
-        <v>2.989604547419959</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="L24">
-        <v>2.195642819680748</v>
+        <v>0.2434722769406729</v>
       </c>
       <c r="M24">
-        <v>2.359723982081764</v>
+        <v>0.01254785470251997</v>
       </c>
       <c r="N24">
-        <v>2.989604547419959</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="O24">
-        <v>2.195642819680748</v>
+        <v>0.2434722769406729</v>
       </c>
       <c r="P24">
-        <v>2.277683400881256</v>
+        <v>0.1280100658215965</v>
       </c>
       <c r="Q24">
-        <v>1.152903105237928</v>
+        <v>0.7914341186983134</v>
       </c>
       <c r="R24">
-        <v>2.51499044972749</v>
+        <v>0.0852565849213061</v>
       </c>
       <c r="S24">
-        <v>1.55517673085254</v>
+        <v>0.5318053640330489</v>
       </c>
       <c r="T24">
-        <v>2.51499044972749</v>
+        <v>0.0852565849213061</v>
       </c>
       <c r="U24">
-        <v>1.913783684994395</v>
+        <v>0.398791428804968</v>
       </c>
       <c r="V24">
-        <v>2.128947857479507</v>
+        <v>0.3189830676681195</v>
       </c>
       <c r="W24">
-        <v>1.365062931418435</v>
+        <v>0.8358218178814529</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.002965395634932878</v>
+        <v>1.26648903531007</v>
       </c>
       <c r="D25">
-        <v>0.513593882900742</v>
+        <v>0.4533893374864226</v>
       </c>
       <c r="E25">
-        <v>1.089884389547288</v>
+        <v>0.04493336651283013</v>
       </c>
       <c r="F25">
-        <v>1.089884389547288</v>
+        <v>0.04493336651283013</v>
       </c>
       <c r="G25">
-        <v>-9.337905215507311E-05</v>
+        <v>1.611159066105061</v>
       </c>
       <c r="H25">
-        <v>1.309209376322907</v>
+        <v>1.478040375546571</v>
       </c>
       <c r="I25">
-        <v>-3.824127051843169E-05</v>
+        <v>0.002303868019616903</v>
       </c>
       <c r="J25">
-        <v>-0.0003721339944937158</v>
+        <v>0.9634014086910617</v>
       </c>
       <c r="K25">
-        <v>1.089884389547288</v>
+        <v>0.04493336651283013</v>
       </c>
       <c r="L25">
-        <v>0.0009851134221014234</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="M25">
-        <v>-3.824127051843169E-05</v>
+        <v>0.002303868019616903</v>
       </c>
       <c r="N25">
-        <v>1.089884389547288</v>
+        <v>0.04493336651283013</v>
       </c>
       <c r="O25">
-        <v>0.0009851134221014234</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="P25">
-        <v>0.0004734360757914958</v>
+        <v>0.02277045113670992</v>
       </c>
       <c r="Q25">
-        <v>0.00197525452851715</v>
+        <v>0.6548630347819363</v>
       </c>
       <c r="R25">
-        <v>0.3636104205662902</v>
+        <v>0.03015808959541666</v>
       </c>
       <c r="S25">
-        <v>0.001304089262171956</v>
+        <v>0.4373433125278299</v>
       </c>
       <c r="T25">
-        <v>0.3636104205662902</v>
+        <v>0.03015808959541666</v>
       </c>
       <c r="U25">
-        <v>0.2734491643334509</v>
+        <v>0.3392408260240799</v>
       </c>
       <c r="V25">
-        <v>0.4367362093762182</v>
+        <v>0.28037933412183</v>
       </c>
       <c r="W25">
-        <v>0.3645168004388504</v>
+        <v>0.7328691864906796</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.952141520944304</v>
+        <v>0.1101633907951074</v>
       </c>
       <c r="D26">
-        <v>2.175071935320451</v>
+        <v>1.435229108508237</v>
       </c>
       <c r="E26">
-        <v>0.002043168524354677</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="F26">
-        <v>0.002043168524354677</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="G26">
-        <v>0.03415047585304375</v>
+        <v>0.5663888784986911</v>
       </c>
       <c r="H26">
-        <v>1.249658272177324</v>
+        <v>0.06129398204738225</v>
       </c>
       <c r="I26">
-        <v>-0.0002872047814168298</v>
+        <v>2.359723982081764</v>
       </c>
       <c r="J26">
-        <v>0.05498940139095661</v>
+        <v>1.202456742315591</v>
       </c>
       <c r="K26">
-        <v>0.002043168524354677</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="L26">
-        <v>0.6404703130824716</v>
+        <v>2.195642819680748</v>
       </c>
       <c r="M26">
-        <v>-0.0002872047814168298</v>
+        <v>2.359723982081764</v>
       </c>
       <c r="N26">
-        <v>0.002043168524354677</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="O26">
-        <v>0.6404703130824716</v>
+        <v>2.195642819680748</v>
       </c>
       <c r="P26">
-        <v>0.3200915541505274</v>
+        <v>2.277683400881256</v>
       </c>
       <c r="Q26">
-        <v>1.296305917013388</v>
+        <v>1.152903105237928</v>
       </c>
       <c r="R26">
-        <v>0.2140754256084698</v>
+        <v>2.51499044972749</v>
       </c>
       <c r="S26">
-        <v>0.864108209748453</v>
+        <v>1.55517673085254</v>
       </c>
       <c r="T26">
-        <v>0.2140754256084698</v>
+        <v>2.51499044972749</v>
       </c>
       <c r="U26">
-        <v>0.6485919494424284</v>
+        <v>1.913783684994395</v>
       </c>
       <c r="V26">
-        <v>0.5192821932588136</v>
+        <v>2.128947857479507</v>
       </c>
       <c r="W26">
-        <v>0.7635297353139361</v>
+        <v>1.365062931418435</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.458046104848207</v>
+        <v>0.002965395634932878</v>
       </c>
       <c r="D27">
-        <v>3.218067163458239</v>
+        <v>0.513593882900742</v>
       </c>
       <c r="E27">
-        <v>2.807955566646429</v>
+        <v>1.089884389547288</v>
       </c>
       <c r="F27">
-        <v>2.807955566646429</v>
+        <v>1.089884389547288</v>
       </c>
       <c r="G27">
-        <v>1.20849302825377</v>
+        <v>-9.337905215507311E-05</v>
       </c>
       <c r="H27">
-        <v>1.749504689976261</v>
+        <v>1.309209376322907</v>
       </c>
       <c r="I27">
-        <v>0.06394563297129448</v>
+        <v>-3.824127051843169E-05</v>
       </c>
       <c r="J27">
-        <v>1.69964196522591</v>
+        <v>-0.0003721339944937158</v>
       </c>
       <c r="K27">
-        <v>2.807955566646429</v>
+        <v>1.089884389547288</v>
       </c>
       <c r="L27">
-        <v>1.837449966578746</v>
+        <v>0.0009851134221014234</v>
       </c>
       <c r="M27">
-        <v>0.06394563297129448</v>
+        <v>-3.824127051843169E-05</v>
       </c>
       <c r="N27">
-        <v>2.807955566646429</v>
+        <v>1.089884389547288</v>
       </c>
       <c r="O27">
-        <v>1.837449966578746</v>
+        <v>0.0009851134221014234</v>
       </c>
       <c r="P27">
-        <v>0.9506977997750201</v>
+        <v>0.0004734360757914958</v>
       </c>
       <c r="Q27">
-        <v>2.147748035713477</v>
+        <v>0.00197525452851715</v>
       </c>
       <c r="R27">
-        <v>1.56978372206549</v>
+        <v>0.3636104205662902</v>
       </c>
       <c r="S27">
-        <v>1.453147234799416</v>
+        <v>0.001304089262171956</v>
       </c>
       <c r="T27">
-        <v>1.56978372206549</v>
+        <v>0.3636104205662902</v>
       </c>
       <c r="U27">
-        <v>1.791849317761169</v>
+        <v>0.2734491643334509</v>
       </c>
       <c r="V27">
-        <v>1.995070567538221</v>
+        <v>0.4367362093762182</v>
       </c>
       <c r="W27">
-        <v>1.880388014744857</v>
+        <v>0.3645168004388504</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>3.300086956170925</v>
+        <v>1.952141520944304</v>
       </c>
       <c r="D28">
-        <v>1.653196592627267</v>
+        <v>2.175071935320451</v>
       </c>
       <c r="E28">
-        <v>2.600540733808507</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="F28">
-        <v>2.600540733808507</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="G28">
-        <v>1.421008259166591</v>
+        <v>0.03415047585304375</v>
       </c>
       <c r="H28">
-        <v>1.061255963677574</v>
+        <v>1.249658272177324</v>
       </c>
       <c r="I28">
-        <v>1.057904172687598</v>
+        <v>-0.0002872047814168298</v>
       </c>
       <c r="J28">
-        <v>0.04382683322406025</v>
+        <v>0.05498940139095661</v>
       </c>
       <c r="K28">
-        <v>2.600540733808507</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="L28">
-        <v>0.9306939815662707</v>
+        <v>0.6404703130824716</v>
       </c>
       <c r="M28">
-        <v>1.057904172687598</v>
+        <v>-0.0002872047814168298</v>
       </c>
       <c r="N28">
-        <v>2.600540733808507</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="O28">
-        <v>0.9306939815662707</v>
+        <v>0.6404703130824716</v>
       </c>
       <c r="P28">
-        <v>0.9942990771269341</v>
+        <v>0.3200915541505274</v>
       </c>
       <c r="Q28">
-        <v>2.115390468868598</v>
+        <v>1.296305917013388</v>
       </c>
       <c r="R28">
-        <v>1.529712962687459</v>
+        <v>0.2140754256084698</v>
       </c>
       <c r="S28">
-        <v>1.762895036808265</v>
+        <v>0.864108209748453</v>
       </c>
       <c r="T28">
-        <v>1.529712962687459</v>
+        <v>0.2140754256084698</v>
       </c>
       <c r="U28">
-        <v>1.972306461058325</v>
+        <v>0.6485919494424284</v>
       </c>
       <c r="V28">
-        <v>2.097953315608362</v>
+        <v>0.5192821932588136</v>
       </c>
       <c r="W28">
-        <v>1.508564186616099</v>
+        <v>0.7635297353139361</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>2.458046104848207</v>
+      </c>
+      <c r="D29">
+        <v>3.218067163458239</v>
+      </c>
+      <c r="E29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="F29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="G29">
+        <v>1.20849302825377</v>
+      </c>
+      <c r="H29">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="I29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="J29">
+        <v>1.69964196522591</v>
+      </c>
+      <c r="K29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="L29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="M29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="N29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="O29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="P29">
+        <v>0.9506977997750201</v>
+      </c>
+      <c r="Q29">
+        <v>2.147748035713477</v>
+      </c>
+      <c r="R29">
+        <v>1.56978372206549</v>
+      </c>
+      <c r="S29">
+        <v>1.453147234799416</v>
+      </c>
+      <c r="T29">
+        <v>1.56978372206549</v>
+      </c>
+      <c r="U29">
+        <v>1.791849317761169</v>
+      </c>
+      <c r="V29">
+        <v>1.995070567538221</v>
+      </c>
+      <c r="W29">
+        <v>1.880388014744857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>3.300086956170925</v>
+      </c>
+      <c r="D30">
+        <v>1.653196592627267</v>
+      </c>
+      <c r="E30">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="F30">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="G30">
+        <v>1.421008259166591</v>
+      </c>
+      <c r="H30">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="I30">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="J30">
+        <v>0.04382683322406025</v>
+      </c>
+      <c r="K30">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="L30">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="M30">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="N30">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="O30">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="P30">
+        <v>0.9942990771269341</v>
+      </c>
+      <c r="Q30">
+        <v>2.115390468868598</v>
+      </c>
+      <c r="R30">
+        <v>1.529712962687459</v>
+      </c>
+      <c r="S30">
+        <v>1.762895036808265</v>
+      </c>
+      <c r="T30">
+        <v>1.529712962687459</v>
+      </c>
+      <c r="U30">
+        <v>1.972306461058325</v>
+      </c>
+      <c r="V30">
+        <v>2.097953315608362</v>
+      </c>
+      <c r="W30">
+        <v>1.508564186616099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>2.872325516470453</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.44561109241561</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>5.721186622961275</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>5.721186622961275</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9782530075531446</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.05634646698588139</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>2.375468013095546</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.002588871330876458</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>5.721186622961275</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.791454830739619</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>2.375468013095546</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>5.721186622961275</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.791454830739619</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>2.083461421917582</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>2.331890173605036</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>3.296036488932147</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.346416120101873</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>3.296036488932147</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>3.190108745816723</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>3.696324321245633</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.905404302694051</v>
       </c>
     </row>
